--- a/Kode/Server2/Logs/lora_node2/2020-05-26.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-05-26.xlsx
@@ -3543,7 +3543,7 @@
         <v>0.03</v>
       </c>
       <c r="F159" t="n">
-        <v>7.224e-05</v>
+        <v>0.07224</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>0.03</v>
       </c>
       <c r="F160" t="n">
-        <v>7.211999999999999e-05</v>
+        <v>0.07211999999999999</v>
       </c>
     </row>
     <row r="161">
@@ -3723,7 +3723,7 @@
         <v>0.03</v>
       </c>
       <c r="F168" t="n">
-        <v>7.115999999999999e-05</v>
+        <v>0.07115999999999999</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>0.06</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00013968</v>
+        <v>0.13968</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>0.105</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00024108</v>
+        <v>0.24108</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>0.12</v>
       </c>
       <c r="F171" t="n">
-        <v>0.000276</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>0.135</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00030834</v>
+        <v>0.30834</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>0.165</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0003762</v>
+        <v>0.3762</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>0.195</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00044226</v>
+        <v>0.44226</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>0.225</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0004896</v>
+        <v>0.4896</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>0.24</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00052992</v>
+        <v>0.5299200000000001</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>0.27</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0006026400000000001</v>
+        <v>0.6026400000000001</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>0.285</v>
       </c>
       <c r="F178" t="n">
-        <v>0.00064068</v>
+        <v>0.64068</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>0.3</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0006684</v>
+        <v>0.6684</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>0.315</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0007043400000000001</v>
+        <v>0.7043400000000001</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>0.33</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0007141199999999999</v>
+        <v>0.71412</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>0.345</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0007769399999999999</v>
+        <v>0.77694</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>0.345</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0007728</v>
+        <v>0.7728</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>0.375</v>
       </c>
       <c r="F184" t="n">
-        <v>0.000831</v>
+        <v>0.8310000000000001</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>0.375</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0008250000000000001</v>
+        <v>0.8250000000000001</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>0.39</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0008829600000000001</v>
+        <v>0.8829600000000001</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>0.405</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0009088200000000001</v>
+        <v>0.9088200000000001</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>0.45</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0009809999999999999</v>
+        <v>0.9809999999999999</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>0.465</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0010323</v>
+        <v>1.0323</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>0.495</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0010791</v>
+        <v>1.0791</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F191" t="n">
-        <v>0.00119658</v>
+        <v>1.19658</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>0.585</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0012753</v>
+        <v>1.2753</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0014931</v>
+        <v>1.4931</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>0.72</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00153792</v>
+        <v>1.53792</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>0.84</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00177408</v>
+        <v>1.77408</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>0.885</v>
       </c>
       <c r="F196" t="n">
-        <v>0.00193992</v>
+        <v>1.93992</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F197" t="n">
-        <v>0.00199104</v>
+        <v>1.99104</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>0.945</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00202608</v>
+        <v>2.02608</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>0.99</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00211464</v>
+        <v>2.11464</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>1.095</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00233892</v>
+        <v>2.33892</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>1.125</v>
       </c>
       <c r="F201" t="n">
-        <v>0.002412</v>
+        <v>2.412</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>1.14</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00240312</v>
+        <v>2.40312</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>1.185</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00246006</v>
+        <v>2.46006</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>1.2</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0025056</v>
+        <v>2.5056</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>1.2</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0025248</v>
+        <v>2.5248</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>1.215</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00241056</v>
+        <v>2.41056</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>1.215</v>
       </c>
       <c r="F207" t="n">
-        <v>0.002483459999999999</v>
+        <v>2.483459999999999</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>1.23</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00255348</v>
+        <v>2.55348</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>1.23</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00252396</v>
+        <v>2.52396</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>1.26</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0025704</v>
+        <v>2.5704</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>1.32</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00265584</v>
+        <v>2.65584</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>1.365</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00247338</v>
+        <v>2.47338</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>1.455</v>
       </c>
       <c r="F213" t="n">
-        <v>0.00265974</v>
+        <v>2.65974</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>1.5</v>
       </c>
       <c r="F214" t="n">
-        <v>0.00276</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>1.635</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00309342</v>
+        <v>3.09342</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>1.725</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0033189</v>
+        <v>3.3189</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>1.815</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0035574</v>
+        <v>3.5574</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>1.905</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00380238</v>
+        <v>3.80238</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>2.025</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0041229</v>
+        <v>4.1229</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>2.145</v>
       </c>
       <c r="F220" t="n">
-        <v>0.00445302</v>
+        <v>4.45302</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>2.505</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00535068</v>
+        <v>5.35068</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>2.715</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00587526</v>
+        <v>5.87526</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>2.985</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0065073</v>
+        <v>6.5073</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>3.255</v>
       </c>
       <c r="F224" t="n">
-        <v>0.007082880000000001</v>
+        <v>7.08288</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>3.51</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00773604</v>
+        <v>7.736039999999999</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>3.75</v>
       </c>
       <c r="F226" t="n">
-        <v>0.008355</v>
+        <v>8.355</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>3.96</v>
       </c>
       <c r="F227" t="n">
-        <v>0.00868032</v>
+        <v>8.68032</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F228" t="n">
-        <v>0.009124200000000001</v>
+        <v>9.1242</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>4.245</v>
       </c>
       <c r="F229" t="n">
-        <v>0.009406920000000001</v>
+        <v>9.406920000000001</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>4.425</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0096819</v>
+        <v>9.681900000000001</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>4.62</v>
       </c>
       <c r="F231" t="n">
-        <v>0.01014552</v>
+        <v>10.14552</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>4.845</v>
       </c>
       <c r="F232" t="n">
-        <v>0.01058148</v>
+        <v>10.58148</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>5.1</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0110772</v>
+        <v>11.0772</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>5.355</v>
       </c>
       <c r="F234" t="n">
-        <v>0.01180242</v>
+        <v>11.80242</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>5.64</v>
       </c>
       <c r="F235" t="n">
-        <v>0.01256592</v>
+        <v>12.56592</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>5.91</v>
       </c>
       <c r="F236" t="n">
-        <v>0.013002</v>
+        <v>13.002</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>6.18</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0134724</v>
+        <v>13.4724</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>6.42</v>
       </c>
       <c r="F238" t="n">
-        <v>0.01404696</v>
+        <v>14.04696</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>6.675</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0147384</v>
+        <v>14.7384</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>6.87</v>
       </c>
       <c r="F240" t="n">
-        <v>0.01500408</v>
+        <v>15.00408</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>7.02</v>
       </c>
       <c r="F241" t="n">
-        <v>0.01521936</v>
+        <v>15.21936</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>7.154999999999999</v>
       </c>
       <c r="F242" t="n">
-        <v>0.015741</v>
+        <v>15.741</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>7.29</v>
       </c>
       <c r="F243" t="n">
-        <v>0.01577556</v>
+        <v>15.77556</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>7.425</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0161865</v>
+        <v>16.1865</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>7.574999999999999</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0165741</v>
+        <v>16.5741</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>7.77</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0169386</v>
+        <v>16.9386</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>7.859999999999999</v>
       </c>
       <c r="F247" t="n">
-        <v>0.01707192</v>
+        <v>17.07192</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>7.92</v>
       </c>
       <c r="F248" t="n">
-        <v>0.01717056</v>
+        <v>17.17056</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>7.995</v>
       </c>
       <c r="F249" t="n">
-        <v>0.01723722</v>
+        <v>17.23722</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F250" t="n">
-        <v>0.01746324</v>
+        <v>17.46324</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="F251" t="n">
-        <v>0.01781856</v>
+        <v>17.81856</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>8.504999999999999</v>
       </c>
       <c r="F252" t="n">
-        <v>0.01830276</v>
+        <v>18.30276</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>9.135</v>
       </c>
       <c r="F253" t="n">
-        <v>0.01969506</v>
+        <v>19.69506</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>9.164999999999999</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0197964</v>
+        <v>19.7964</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>9.195</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0198612</v>
+        <v>19.8612</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>9.164999999999999</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0197964</v>
+        <v>19.7964</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0196992</v>
+        <v>19.6992</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>8.969999999999999</v>
       </c>
       <c r="F258" t="n">
-        <v>0.01933932</v>
+        <v>19.33932</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>8.219999999999999</v>
       </c>
       <c r="F259" t="n">
-        <v>0.01765656</v>
+        <v>17.65656</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>7.935</v>
       </c>
       <c r="F260" t="n">
-        <v>0.01717134</v>
+        <v>17.17134</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>7.68</v>
       </c>
       <c r="F261" t="n">
-        <v>0.01677312</v>
+        <v>16.77312</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>7.455</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0162519</v>
+        <v>16.2519</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>7.305</v>
       </c>
       <c r="F263" t="n">
-        <v>0.01601256</v>
+        <v>16.01256</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>7.23</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0156168</v>
+        <v>15.6168</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0154944</v>
+        <v>15.4944</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>7.274999999999999</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0158304</v>
+        <v>15.8304</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>7.364999999999999</v>
       </c>
       <c r="F267" t="n">
-        <v>0.01599678</v>
+        <v>15.99678</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>7.5</v>
       </c>
       <c r="F268" t="n">
-        <v>0.01641</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>7.529999999999999</v>
       </c>
       <c r="F269" t="n">
-        <v>0.01647564</v>
+        <v>16.47564</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>7.56</v>
       </c>
       <c r="F270" t="n">
-        <v>0.01654128</v>
+        <v>16.54128</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>7.694999999999999</v>
       </c>
       <c r="F271" t="n">
-        <v>0.01680588</v>
+        <v>16.80588</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>7.83</v>
       </c>
       <c r="F272" t="n">
-        <v>0.01700676</v>
+        <v>17.00676</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>8.025</v>
       </c>
       <c r="F273" t="n">
-        <v>0.01726980000000001</v>
+        <v>17.26980000000001</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>8.73</v>
       </c>
       <c r="F274" t="n">
-        <v>0.01878696</v>
+        <v>18.78696</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>8.955</v>
       </c>
       <c r="F275" t="n">
-        <v>0.01930698</v>
+        <v>19.30698</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>9.164999999999999</v>
       </c>
       <c r="F276" t="n">
-        <v>0.01975974</v>
+        <v>19.75974</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>9.375</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0202875</v>
+        <v>20.2875</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>9.615</v>
       </c>
       <c r="F278" t="n">
-        <v>0.02080686</v>
+        <v>20.80686</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>9.615</v>
       </c>
       <c r="F279" t="n">
-        <v>0.02080686</v>
+        <v>20.80686</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="F280" t="n">
-        <v>0.02064456</v>
+        <v>20.64456</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>9.404999999999999</v>
       </c>
       <c r="F281" t="n">
-        <v>0.02035242</v>
+        <v>20.35242</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>9.33</v>
       </c>
       <c r="F282" t="n">
-        <v>0.02019012</v>
+        <v>20.19012</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>9.254999999999999</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0199908</v>
+        <v>19.9908</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>9.24</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0199584</v>
+        <v>19.9584</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>9.254999999999999</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0199908</v>
+        <v>19.9908</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>9.24</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0199584</v>
+        <v>19.9584</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>9.225</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0198891</v>
+        <v>19.8891</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>9.299999999999999</v>
       </c>
       <c r="F288" t="n">
-        <v>0.020088</v>
+        <v>20.088</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>9.42</v>
       </c>
       <c r="F289" t="n">
-        <v>0.02038488</v>
+        <v>20.38488</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>9.824999999999999</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0213006</v>
+        <v>21.3006</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>10.065</v>
       </c>
       <c r="F291" t="n">
-        <v>0.02186118</v>
+        <v>21.86118</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>10.305</v>
       </c>
       <c r="F292" t="n">
-        <v>0.02242368</v>
+        <v>22.42368</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>10.815</v>
       </c>
       <c r="F293" t="n">
-        <v>0.02361996</v>
+        <v>23.61996</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>11.085</v>
       </c>
       <c r="F294" t="n">
-        <v>0.02420964</v>
+        <v>24.20964</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>11.34</v>
       </c>
       <c r="F295" t="n">
-        <v>0.02481192</v>
+        <v>24.81192</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>11.955</v>
       </c>
       <c r="F296" t="n">
-        <v>0.02625318</v>
+        <v>26.25318</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>12.27</v>
       </c>
       <c r="F297" t="n">
-        <v>0.02694492</v>
+        <v>26.94492</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>12.6</v>
       </c>
       <c r="F298" t="n">
-        <v>0.02772</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>12.93</v>
       </c>
       <c r="F299" t="n">
-        <v>0.02849772</v>
+        <v>28.49772</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>13.485</v>
       </c>
       <c r="F300" t="n">
-        <v>0.02950518</v>
+        <v>29.50518</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>13.71</v>
       </c>
       <c r="F301" t="n">
-        <v>0.02994264</v>
+        <v>29.94264</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>13.935</v>
       </c>
       <c r="F302" t="n">
-        <v>0.03043404</v>
+        <v>30.43404</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>14.16</v>
       </c>
       <c r="F303" t="n">
-        <v>0.03081216</v>
+        <v>30.81216</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>14.46</v>
       </c>
       <c r="F304" t="n">
-        <v>0.03140712</v>
+        <v>31.40712</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>14.79</v>
       </c>
       <c r="F305" t="n">
-        <v>0.03206472</v>
+        <v>32.06472</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>15.195</v>
       </c>
       <c r="F306" t="n">
-        <v>0.03294276</v>
+        <v>32.94276</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>15.675</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0337953</v>
+        <v>33.7953</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>9.074999999999999</v>
       </c>
       <c r="F308" t="n">
-        <v>0.04991249999999999</v>
+        <v>49.91249999999999</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>7.71</v>
       </c>
       <c r="F309" t="n">
-        <v>0.04659924</v>
+        <v>46.59924</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>7.319999999999999</v>
       </c>
       <c r="F310" t="n">
-        <v>0.044652</v>
+        <v>44.65199999999999</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>7.02</v>
       </c>
       <c r="F311" t="n">
-        <v>0.0431028</v>
+        <v>43.10279999999999</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>6.734999999999999</v>
       </c>
       <c r="F312" t="n">
-        <v>0.04154148</v>
+        <v>41.54148</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>6.465</v>
       </c>
       <c r="F313" t="n">
-        <v>0.03997956</v>
+        <v>39.97956</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>6.24</v>
       </c>
       <c r="F314" t="n">
-        <v>0.03863808000000001</v>
+        <v>38.63808000000001</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>6.045</v>
       </c>
       <c r="F315" t="n">
-        <v>0.037479</v>
+        <v>37.479</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>5.865</v>
       </c>
       <c r="F316" t="n">
-        <v>0.03638646</v>
+        <v>36.38646</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>5.73</v>
       </c>
       <c r="F317" t="n">
-        <v>0.03557184</v>
+        <v>35.57184</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>5.505</v>
       </c>
       <c r="F318" t="n">
-        <v>0.03426312</v>
+        <v>34.26312</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>5.34</v>
       </c>
       <c r="F319" t="n">
-        <v>0.03338568</v>
+        <v>33.38568</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F320" t="n">
-        <v>0.03307391999999999</v>
+        <v>33.07391999999999</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>5.175</v>
       </c>
       <c r="F321" t="n">
-        <v>0.0325404</v>
+        <v>32.5404</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>5.115</v>
       </c>
       <c r="F322" t="n">
-        <v>0.03220404</v>
+        <v>32.20404000000001</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>5.085</v>
       </c>
       <c r="F323" t="n">
-        <v>0.03207618</v>
+        <v>32.07618</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>4.995</v>
       </c>
       <c r="F324" t="n">
-        <v>0.03160836</v>
+        <v>31.60836</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>4.95</v>
       </c>
       <c r="F325" t="n">
-        <v>0.031383</v>
+        <v>31.383</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>4.935</v>
       </c>
       <c r="F326" t="n">
-        <v>0.03136686</v>
+        <v>31.36686</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>4.859999999999999</v>
       </c>
       <c r="F327" t="n">
-        <v>0.03104568</v>
+        <v>31.04568</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>4.845</v>
       </c>
       <c r="F328" t="n">
-        <v>0.031008</v>
+        <v>31.008</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>4.785</v>
       </c>
       <c r="F329" t="n">
-        <v>0.03073884</v>
+        <v>30.73884</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>4.8</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0308736</v>
+        <v>30.8736</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>4.755</v>
       </c>
       <c r="F331" t="n">
-        <v>0.03064122</v>
+        <v>30.64122</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>4.74</v>
       </c>
       <c r="F332" t="n">
-        <v>0.03056352</v>
+        <v>30.56352</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>4.725</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0304479</v>
+        <v>30.4479</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>4.71</v>
       </c>
       <c r="F334" t="n">
-        <v>0.03035124</v>
+        <v>30.35124</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>4.71</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0303324</v>
+        <v>30.3324</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F336" t="n">
-        <v>0.03021701999999999</v>
+        <v>30.21701999999999</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>4.71</v>
       </c>
       <c r="F337" t="n">
-        <v>0.03021936</v>
+        <v>30.21936</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>4.71</v>
       </c>
       <c r="F338" t="n">
-        <v>0.03016284</v>
+        <v>30.16284</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>4.8</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0311616</v>
+        <v>31.1616</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>4.725</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0300132</v>
+        <v>30.0132</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>4.755</v>
       </c>
       <c r="F341" t="n">
-        <v>0.02997552</v>
+        <v>29.97552</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>4.785</v>
       </c>
       <c r="F342" t="n">
-        <v>0.02997324</v>
+        <v>29.97324</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>4.815</v>
       </c>
       <c r="F343" t="n">
-        <v>0.02998781999999999</v>
+        <v>29.98781999999999</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>4.83</v>
       </c>
       <c r="F344" t="n">
-        <v>0.02992668</v>
+        <v>29.92668</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>4.845</v>
       </c>
       <c r="F345" t="n">
-        <v>0.02982582</v>
+        <v>29.82582</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>4.92</v>
       </c>
       <c r="F346" t="n">
-        <v>0.0297168</v>
+        <v>29.7168</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>4.935</v>
       </c>
       <c r="F347" t="n">
-        <v>0.02976792</v>
+        <v>29.76792</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>4.935</v>
       </c>
       <c r="F348" t="n">
-        <v>0.02974818</v>
+        <v>29.74818</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F349" t="n">
-        <v>0.03009552</v>
+        <v>30.09552</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>5.115</v>
       </c>
       <c r="F350" t="n">
-        <v>0.02974884</v>
+        <v>29.74884</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>5.16</v>
       </c>
       <c r="F351" t="n">
-        <v>0.0297216</v>
+        <v>29.7216</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>5.295</v>
       </c>
       <c r="F352" t="n">
-        <v>0.02967318</v>
+        <v>29.67318</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>5.34</v>
       </c>
       <c r="F353" t="n">
-        <v>0.02977584</v>
+        <v>29.77584</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>5.325</v>
       </c>
       <c r="F354" t="n">
-        <v>0.0296922</v>
+        <v>29.6922</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F355" t="n">
-        <v>0.02960916</v>
+        <v>29.60916</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>5.19</v>
       </c>
       <c r="F356" t="n">
-        <v>0.02974908</v>
+        <v>29.74908</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>5.1</v>
       </c>
       <c r="F357" t="n">
-        <v>0.0297024</v>
+        <v>29.7024</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F358" t="n">
-        <v>0.02989272</v>
+        <v>29.89272</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>5.01</v>
       </c>
       <c r="F359" t="n">
-        <v>0.02997984</v>
+        <v>29.97984</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>4.89</v>
       </c>
       <c r="F360" t="n">
-        <v>0.02971164</v>
+        <v>29.71164</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>4.71</v>
       </c>
       <c r="F361" t="n">
-        <v>0.02984256</v>
+        <v>29.84256</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>4.71</v>
       </c>
       <c r="F362" t="n">
-        <v>0.02993676</v>
+        <v>29.93676</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>4.649999999999999</v>
       </c>
       <c r="F363" t="n">
-        <v>0.0299088</v>
+        <v>29.9088</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>4.605</v>
       </c>
       <c r="F364" t="n">
-        <v>0.02985882</v>
+        <v>29.85882</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>5.04</v>
       </c>
       <c r="F365" t="n">
-        <v>0.03273984</v>
+        <v>32.73984</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>5.31</v>
       </c>
       <c r="F366" t="n">
-        <v>0.03464244</v>
+        <v>34.64243999999999</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>5.325</v>
       </c>
       <c r="F367" t="n">
-        <v>0.0346764</v>
+        <v>34.6764</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>5.265</v>
       </c>
       <c r="F368" t="n">
-        <v>0.03447522</v>
+        <v>34.47522</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>5.34</v>
       </c>
       <c r="F369" t="n">
-        <v>0.03500904</v>
+        <v>35.00904</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>5.295</v>
       </c>
       <c r="F370" t="n">
-        <v>0.03458694</v>
+        <v>34.58694</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>5.355</v>
       </c>
       <c r="F371" t="n">
-        <v>0.03452904</v>
+        <v>34.52903999999999</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>5.49</v>
       </c>
       <c r="F372" t="n">
-        <v>0.03458700000000001</v>
+        <v>34.587</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>5.565</v>
       </c>
       <c r="F373" t="n">
-        <v>0.03454752</v>
+        <v>34.54752</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>5.565</v>
       </c>
       <c r="F374" t="n">
-        <v>0.03439169999999999</v>
+        <v>34.39169999999999</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F375" t="n">
-        <v>0.03451272</v>
+        <v>34.51271999999999</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F376" t="n">
-        <v>0.03469907999999999</v>
+        <v>34.69908</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F377" t="n">
-        <v>0.03467646</v>
+        <v>34.67646</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F378" t="n">
-        <v>0.03449027999999999</v>
+        <v>34.49027999999999</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>5.58</v>
       </c>
       <c r="F379" t="n">
-        <v>0.03452904</v>
+        <v>34.52903999999999</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>5.444999999999999</v>
       </c>
       <c r="F380" t="n">
-        <v>0.03458663999999999</v>
+        <v>34.58663999999999</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>5.444999999999999</v>
       </c>
       <c r="F381" t="n">
-        <v>0.03482621999999999</v>
+        <v>34.82621999999999</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>5.34</v>
       </c>
       <c r="F382" t="n">
-        <v>0.0343896</v>
+        <v>34.3896</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>5.325</v>
       </c>
       <c r="F383" t="n">
-        <v>0.034293</v>
+        <v>34.293</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>5.37</v>
       </c>
       <c r="F384" t="n">
-        <v>0.03462576</v>
+        <v>34.62576</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>5.37</v>
       </c>
       <c r="F385" t="n">
-        <v>0.03475464</v>
+        <v>34.75464</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>5.34</v>
       </c>
       <c r="F386" t="n">
-        <v>0.03477408000000001</v>
+        <v>34.77408000000001</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>5.205</v>
       </c>
       <c r="F387" t="n">
-        <v>0.03429054</v>
+        <v>34.29054</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F388" t="n">
-        <v>0.03427877999999999</v>
+        <v>34.27877999999999</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>5.325</v>
       </c>
       <c r="F389" t="n">
-        <v>0.0348042</v>
+        <v>34.8042</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F390" t="n">
-        <v>0.03467904</v>
+        <v>34.67904</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>5.19</v>
       </c>
       <c r="F391" t="n">
-        <v>0.0345654</v>
+        <v>34.5654</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>5.175</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0344655</v>
+        <v>34.46550000000001</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>5.265</v>
       </c>
       <c r="F393" t="n">
-        <v>0.03578094</v>
+        <v>35.78093999999999</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>5.16</v>
       </c>
       <c r="F394" t="n">
-        <v>0.03451008000000001</v>
+        <v>34.51008000000001</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>5.145</v>
       </c>
       <c r="F395" t="n">
-        <v>0.03436859999999999</v>
+        <v>34.36859999999999</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>5.265</v>
       </c>
       <c r="F396" t="n">
-        <v>0.0350649</v>
+        <v>35.0649</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>5.175</v>
       </c>
       <c r="F397" t="n">
-        <v>0.0343206</v>
+        <v>34.3206</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>5.25</v>
       </c>
       <c r="F398" t="n">
-        <v>0.034818</v>
+        <v>34.818</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0347604</v>
+        <v>34.7604</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>5.22</v>
       </c>
       <c r="F400" t="n">
-        <v>0.03472343999999999</v>
+        <v>34.72343999999999</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F401" t="n">
-        <v>0.03471852</v>
+        <v>34.71852000000001</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>5.22</v>
       </c>
       <c r="F402" t="n">
-        <v>0.03455639999999999</v>
+        <v>34.55639999999999</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>5.25</v>
       </c>
       <c r="F403" t="n">
-        <v>0.034671</v>
+        <v>34.671</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>5.25</v>
       </c>
       <c r="F404" t="n">
-        <v>0.034629</v>
+        <v>34.629</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>5.295</v>
       </c>
       <c r="F405" t="n">
-        <v>0.03490464</v>
+        <v>34.90464</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>5.265</v>
       </c>
       <c r="F406" t="n">
-        <v>0.03468582</v>
+        <v>34.68582</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>5.325</v>
       </c>
       <c r="F407" t="n">
-        <v>0.0349533</v>
+        <v>34.9533</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>5.355</v>
       </c>
       <c r="F408" t="n">
-        <v>0.0351288</v>
+        <v>35.1288</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>5.25</v>
       </c>
       <c r="F409" t="n">
-        <v>0.034524</v>
+        <v>34.524</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>5.265</v>
       </c>
       <c r="F410" t="n">
-        <v>0.034749</v>
+        <v>34.749</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>5.265</v>
       </c>
       <c r="F411" t="n">
-        <v>0.03477006</v>
+        <v>34.77006</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>5.265</v>
       </c>
       <c r="F412" t="n">
-        <v>0.03481218</v>
+        <v>34.81218</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>5.265</v>
       </c>
       <c r="F413" t="n">
-        <v>0.03481218</v>
+        <v>34.81218</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>5.31</v>
       </c>
       <c r="F414" t="n">
-        <v>0.03491856</v>
+        <v>34.91856</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>5.295</v>
       </c>
       <c r="F415" t="n">
-        <v>0.03471402</v>
+        <v>34.71402</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>5.31</v>
       </c>
       <c r="F416" t="n">
-        <v>0.0348336</v>
+        <v>34.8336</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>5.25</v>
       </c>
       <c r="F417" t="n">
-        <v>0.034461</v>
+        <v>34.461</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>5.295</v>
       </c>
       <c r="F418" t="n">
-        <v>0.0347352</v>
+        <v>34.7352</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>5.295</v>
       </c>
       <c r="F419" t="n">
-        <v>0.03479874</v>
+        <v>34.79874</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F420" t="n">
-        <v>0.03465791999999999</v>
+        <v>34.65791999999999</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F421" t="n">
-        <v>0.03467904</v>
+        <v>34.67904</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F422" t="n">
-        <v>0.03467904</v>
+        <v>34.67904</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F423" t="n">
-        <v>0.03470015999999999</v>
+        <v>34.70015999999999</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>5.295</v>
       </c>
       <c r="F424" t="n">
-        <v>0.03490464</v>
+        <v>34.90464</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>5.265</v>
       </c>
       <c r="F425" t="n">
-        <v>0.034749</v>
+        <v>34.749</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>5.25</v>
       </c>
       <c r="F426" t="n">
-        <v>0.034692</v>
+        <v>34.692</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>5.25</v>
       </c>
       <c r="F427" t="n">
-        <v>0.034755</v>
+        <v>34.755</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>5.25</v>
       </c>
       <c r="F428" t="n">
-        <v>0.034881</v>
+        <v>34.881</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>5.22</v>
       </c>
       <c r="F429" t="n">
-        <v>0.0346608</v>
+        <v>34.6608</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>5.25</v>
       </c>
       <c r="F430" t="n">
-        <v>0.034734</v>
+        <v>34.734</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>5.295</v>
       </c>
       <c r="F431" t="n">
-        <v>0.03498936</v>
+        <v>34.98936</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>5.25</v>
       </c>
       <c r="F432" t="n">
-        <v>0.034734</v>
+        <v>34.734</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>5.22</v>
       </c>
       <c r="F433" t="n">
-        <v>0.03457728</v>
+        <v>34.57728</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>5.31</v>
       </c>
       <c r="F434" t="n">
-        <v>0.03498228</v>
+        <v>34.98228</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F435" t="n">
-        <v>0.03470015999999999</v>
+        <v>34.70015999999999</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>5.31</v>
       </c>
       <c r="F436" t="n">
-        <v>0.03487608</v>
+        <v>34.87607999999999</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>5.265</v>
       </c>
       <c r="F437" t="n">
-        <v>0.03455946</v>
+        <v>34.55946</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F438" t="n">
-        <v>0.03465791999999999</v>
+        <v>34.65791999999999</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F439" t="n">
-        <v>0.0346368</v>
+        <v>34.6368</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>5.295</v>
       </c>
       <c r="F440" t="n">
-        <v>0.0347352</v>
+        <v>34.7352</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>5.295</v>
       </c>
       <c r="F441" t="n">
-        <v>0.03477756</v>
+        <v>34.77756</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F442" t="n">
-        <v>0.03465791999999999</v>
+        <v>34.65791999999999</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>5.295</v>
       </c>
       <c r="F443" t="n">
-        <v>0.0347352</v>
+        <v>34.7352</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F444" t="n">
-        <v>0.03465791999999999</v>
+        <v>34.65791999999999</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F445" t="n">
-        <v>0.03455232</v>
+        <v>34.55231999999999</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F446" t="n">
-        <v>0.035964</v>
+        <v>35.96400000000001</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>5.295</v>
       </c>
       <c r="F447" t="n">
-        <v>0.0346293</v>
+        <v>34.6293</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>5.295</v>
       </c>
       <c r="F448" t="n">
-        <v>0.03465048</v>
+        <v>34.65047999999999</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>5.295</v>
       </c>
       <c r="F449" t="n">
-        <v>0.03471402</v>
+        <v>34.71402</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F450" t="n">
-        <v>0.03470015999999999</v>
+        <v>34.70015999999999</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>5.265</v>
       </c>
       <c r="F451" t="n">
-        <v>0.03464369999999999</v>
+        <v>34.6437</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>5.265</v>
       </c>
       <c r="F452" t="n">
-        <v>0.03464369999999999</v>
+        <v>34.6437</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>5.295</v>
       </c>
       <c r="F453" t="n">
-        <v>0.0348411</v>
+        <v>34.8411</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F454" t="n">
-        <v>0.03446724</v>
+        <v>34.46724</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>5.265</v>
       </c>
       <c r="F455" t="n">
-        <v>0.03472794</v>
+        <v>34.72794</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>5.25</v>
       </c>
       <c r="F456" t="n">
-        <v>0.034734</v>
+        <v>34.734</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F457" t="n">
-        <v>0.03469757999999999</v>
+        <v>34.69757999999999</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>5.25</v>
       </c>
       <c r="F458" t="n">
-        <v>0.034776</v>
+        <v>34.776</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>5.22</v>
       </c>
       <c r="F459" t="n">
-        <v>0.03461904</v>
+        <v>34.61904</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>5.22</v>
       </c>
       <c r="F460" t="n">
-        <v>0.03463992</v>
+        <v>34.63992</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F461" t="n">
-        <v>0.03473945999999999</v>
+        <v>34.73945999999999</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>5.265</v>
       </c>
       <c r="F462" t="n">
-        <v>0.0348543</v>
+        <v>34.85429999999999</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>5.22</v>
       </c>
       <c r="F463" t="n">
-        <v>0.03455639999999999</v>
+        <v>34.55639999999999</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>5.19</v>
       </c>
       <c r="F464" t="n">
-        <v>0.0345654</v>
+        <v>34.5654</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>5.145</v>
       </c>
       <c r="F465" t="n">
-        <v>0.03428628</v>
+        <v>34.28628</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F466" t="n">
-        <v>0.03488603999999999</v>
+        <v>34.88603999999999</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F467" t="n">
-        <v>0.03463476</v>
+        <v>34.63476</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>5.325</v>
       </c>
       <c r="F468" t="n">
-        <v>0.03510240000000001</v>
+        <v>35.10240000000001</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>5.295</v>
       </c>
       <c r="F469" t="n">
-        <v>0.03498936</v>
+        <v>34.98936</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>5.22</v>
       </c>
       <c r="F470" t="n">
-        <v>0.03459816</v>
+        <v>34.59816</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>5.295</v>
       </c>
       <c r="F471" t="n">
-        <v>0.0351588</v>
+        <v>35.1588</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>5.115</v>
       </c>
       <c r="F472" t="n">
-        <v>0.03404544</v>
+        <v>34.04544000000001</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>5.265</v>
       </c>
       <c r="F473" t="n">
-        <v>0.03508595999999999</v>
+        <v>35.08595999999999</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F474" t="n">
-        <v>0.03480228</v>
+        <v>34.80228</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>5.265</v>
       </c>
       <c r="F475" t="n">
-        <v>0.03493854</v>
+        <v>34.93854</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>5.22</v>
       </c>
       <c r="F476" t="n">
-        <v>0.0346608</v>
+        <v>34.6608</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F477" t="n">
-        <v>0.03480228</v>
+        <v>34.80228</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>5.22</v>
       </c>
       <c r="F478" t="n">
-        <v>0.0347652</v>
+        <v>34.7652</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>5.22</v>
       </c>
       <c r="F479" t="n">
-        <v>0.03474432</v>
+        <v>34.74432</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>5.22</v>
       </c>
       <c r="F480" t="n">
-        <v>0.03468168</v>
+        <v>34.68168</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>5.205</v>
       </c>
       <c r="F481" t="n">
-        <v>0.03451956</v>
+        <v>34.51956</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>5.295</v>
       </c>
       <c r="F482" t="n">
-        <v>0.03503172</v>
+        <v>35.03172</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F483" t="n">
-        <v>0.03497472</v>
+        <v>34.97472</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>5.19</v>
       </c>
       <c r="F484" t="n">
-        <v>0.03433704</v>
+        <v>34.33704</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>5.265</v>
       </c>
       <c r="F485" t="n">
-        <v>0.03477006</v>
+        <v>34.77006</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F486" t="n">
-        <v>0.03459288</v>
+        <v>34.59288</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>5.265</v>
       </c>
       <c r="F487" t="n">
-        <v>0.03489642</v>
+        <v>34.89642</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>5.265</v>
       </c>
       <c r="F488" t="n">
-        <v>0.03468582</v>
+        <v>34.68582</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>5.25</v>
       </c>
       <c r="F489" t="n">
-        <v>0.034566</v>
+        <v>34.566</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>5.265</v>
       </c>
       <c r="F490" t="n">
-        <v>0.03472794</v>
+        <v>34.72794</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F491" t="n">
-        <v>0.034848</v>
+        <v>34.848</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>5.25</v>
       </c>
       <c r="F492" t="n">
-        <v>0.03479699999999999</v>
+        <v>34.79699999999999</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>5.22</v>
       </c>
       <c r="F493" t="n">
-        <v>0.03463992</v>
+        <v>34.63992</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>5.25</v>
       </c>
       <c r="F494" t="n">
-        <v>0.034839</v>
+        <v>34.839</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>5.25</v>
       </c>
       <c r="F495" t="n">
-        <v>0.034713</v>
+        <v>34.713</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F496" t="n">
-        <v>0.03493247999999999</v>
+        <v>34.93247999999999</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F497" t="n">
-        <v>0.03473945999999999</v>
+        <v>34.73945999999999</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>5.355</v>
       </c>
       <c r="F498" t="n">
-        <v>0.03615695999999999</v>
+        <v>36.15695999999999</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>5.22</v>
       </c>
       <c r="F499" t="n">
-        <v>0.03489047999999999</v>
+        <v>34.89047999999999</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>5.19</v>
       </c>
       <c r="F500" t="n">
-        <v>0.03473148</v>
+        <v>34.73148</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>5.265</v>
       </c>
       <c r="F501" t="n">
-        <v>0.03489642</v>
+        <v>34.89642</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F502" t="n">
-        <v>0.034848</v>
+        <v>34.848</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F503" t="n">
-        <v>0.03491136</v>
+        <v>34.91136</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F504" t="n">
-        <v>0.03469757999999999</v>
+        <v>34.69757999999999</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>5.25</v>
       </c>
       <c r="F505" t="n">
-        <v>0.034776</v>
+        <v>34.776</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F506" t="n">
-        <v>0.03493247999999999</v>
+        <v>34.93247999999999</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>5.265</v>
       </c>
       <c r="F507" t="n">
-        <v>0.034749</v>
+        <v>34.749</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F508" t="n">
-        <v>0.03480576</v>
+        <v>34.80576</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>5.295</v>
       </c>
       <c r="F509" t="n">
-        <v>0.03488346</v>
+        <v>34.88346</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>5.25</v>
       </c>
       <c r="F510" t="n">
-        <v>0.03460800000000001</v>
+        <v>34.608</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>5.31</v>
       </c>
       <c r="F511" t="n">
-        <v>0.03506724</v>
+        <v>35.06724</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F512" t="n">
-        <v>0.03459288</v>
+        <v>34.59288</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>5.25</v>
       </c>
       <c r="F513" t="n">
-        <v>0.034692</v>
+        <v>34.692</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>5.265</v>
       </c>
       <c r="F514" t="n">
-        <v>0.03481218</v>
+        <v>34.81218</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>5.25</v>
       </c>
       <c r="F515" t="n">
-        <v>0.034734</v>
+        <v>34.734</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>5.19</v>
       </c>
       <c r="F516" t="n">
-        <v>0.0344616</v>
+        <v>34.4616</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>5.265</v>
       </c>
       <c r="F517" t="n">
-        <v>0.03502278</v>
+        <v>35.02278</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>5.205</v>
       </c>
       <c r="F518" t="n">
-        <v>0.03479022</v>
+        <v>34.79022</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>5.175</v>
       </c>
       <c r="F519" t="n">
-        <v>0.034569</v>
+        <v>34.569</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>5.175</v>
       </c>
       <c r="F520" t="n">
-        <v>0.0347346</v>
+        <v>34.7346</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>5.19</v>
       </c>
       <c r="F521" t="n">
-        <v>0.03495983999999999</v>
+        <v>34.95983999999999</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>5.145</v>
       </c>
       <c r="F522" t="n">
-        <v>0.03482136</v>
+        <v>34.82136000000001</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>5.1</v>
       </c>
       <c r="F523" t="n">
-        <v>0.03463919999999999</v>
+        <v>34.63919999999999</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F524" t="n">
-        <v>0.03453006</v>
+        <v>34.53006</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>5.25</v>
       </c>
       <c r="F525" t="n">
-        <v>0.034545</v>
+        <v>34.545</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>5.34</v>
       </c>
       <c r="F526" t="n">
-        <v>0.0350304</v>
+        <v>35.0304</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>5.31</v>
       </c>
       <c r="F527" t="n">
-        <v>0.03498228</v>
+        <v>34.98228</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>5.175</v>
       </c>
       <c r="F528" t="n">
-        <v>0.0341757</v>
+        <v>34.17570000000001</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>5.25</v>
       </c>
       <c r="F529" t="n">
-        <v>0.03465000000000001</v>
+        <v>34.65000000000001</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F530" t="n">
-        <v>0.03473945999999999</v>
+        <v>34.73945999999999</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>5.31</v>
       </c>
       <c r="F531" t="n">
-        <v>0.03519468</v>
+        <v>35.19468</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>5.19</v>
       </c>
       <c r="F532" t="n">
-        <v>0.03433704</v>
+        <v>34.33704</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>5.16</v>
       </c>
       <c r="F533" t="n">
-        <v>0.03420048</v>
+        <v>34.20048</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F534" t="n">
-        <v>0.03501696</v>
+        <v>35.01696</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>5.325</v>
       </c>
       <c r="F535" t="n">
-        <v>0.0350811</v>
+        <v>35.0811</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>5.22</v>
       </c>
       <c r="F536" t="n">
-        <v>0.03447288</v>
+        <v>34.47288</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F537" t="n">
-        <v>0.03491136</v>
+        <v>34.91136</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>5.31</v>
       </c>
       <c r="F538" t="n">
-        <v>0.03513096</v>
+        <v>35.13096</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F539" t="n">
-        <v>0.03486912</v>
+        <v>34.86912</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>5.325</v>
       </c>
       <c r="F540" t="n">
-        <v>0.0349107</v>
+        <v>34.91070000000001</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>5.325</v>
       </c>
       <c r="F541" t="n">
-        <v>0.03474029999999999</v>
+        <v>34.74029999999999</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>5.31</v>
       </c>
       <c r="F542" t="n">
-        <v>0.034515</v>
+        <v>34.515</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>5.355</v>
       </c>
       <c r="F543" t="n">
-        <v>0.03474324</v>
+        <v>34.74324</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>5.325</v>
       </c>
       <c r="F544" t="n">
-        <v>0.0346977</v>
+        <v>34.6977</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>5.265</v>
       </c>
       <c r="F545" t="n">
-        <v>0.03470688</v>
+        <v>34.70688000000001</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>5.22</v>
       </c>
       <c r="F546" t="n">
-        <v>0.03447288</v>
+        <v>34.47288</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F547" t="n">
-        <v>0.03461382</v>
+        <v>34.61382</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>5.355</v>
       </c>
       <c r="F548" t="n">
-        <v>0.03600701999999999</v>
+        <v>36.00701999999999</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>5.31</v>
       </c>
       <c r="F549" t="n">
-        <v>0.03513096</v>
+        <v>35.13096</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F550" t="n">
-        <v>0.03469757999999999</v>
+        <v>34.69757999999999</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>5.175</v>
       </c>
       <c r="F551" t="n">
-        <v>0.0343413</v>
+        <v>34.3413</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>5.22</v>
       </c>
       <c r="F552" t="n">
-        <v>0.03470256</v>
+        <v>34.70256</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>5.25</v>
       </c>
       <c r="F553" t="n">
-        <v>0.03486</v>
+        <v>34.86</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>5.265</v>
       </c>
       <c r="F554" t="n">
-        <v>0.0348543</v>
+        <v>34.85429999999999</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F555" t="n">
-        <v>0.03455100000000001</v>
+        <v>34.55100000000001</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>5.265</v>
       </c>
       <c r="F556" t="n">
-        <v>0.03458052</v>
+        <v>34.58052</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>5.31</v>
       </c>
       <c r="F557" t="n">
-        <v>0.03479112</v>
+        <v>34.79112</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>5.31</v>
       </c>
       <c r="F558" t="n">
-        <v>0.03479112</v>
+        <v>34.79112</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>5.295</v>
       </c>
       <c r="F559" t="n">
-        <v>0.03471402</v>
+        <v>34.71402</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>5.325</v>
       </c>
       <c r="F560" t="n">
-        <v>0.0349746</v>
+        <v>34.9746</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>5.325</v>
       </c>
       <c r="F561" t="n">
-        <v>0.0350598</v>
+        <v>35.0598</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F562" t="n">
-        <v>0.03478464</v>
+        <v>34.78464</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>5.25</v>
       </c>
       <c r="F563" t="n">
-        <v>0.034524</v>
+        <v>34.524</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>5.34</v>
       </c>
       <c r="F564" t="n">
-        <v>0.03505176</v>
+        <v>35.05176</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>5.415</v>
       </c>
       <c r="F565" t="n">
-        <v>0.03504588</v>
+        <v>35.04588</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>5.355</v>
       </c>
       <c r="F566" t="n">
-        <v>0.03463614</v>
+        <v>34.63614</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>5.295</v>
       </c>
       <c r="F567" t="n">
-        <v>0.03426924000000001</v>
+        <v>34.26924000000001</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>5.355</v>
       </c>
       <c r="F568" t="n">
-        <v>0.03474324</v>
+        <v>34.74324</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>5.325</v>
       </c>
       <c r="F569" t="n">
-        <v>0.0346125</v>
+        <v>34.6125</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>5.295</v>
       </c>
       <c r="F570" t="n">
-        <v>0.03445986</v>
+        <v>34.45986</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>5.355</v>
       </c>
       <c r="F571" t="n">
-        <v>0.03493602</v>
+        <v>34.93602</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>5.325</v>
       </c>
       <c r="F572" t="n">
-        <v>0.0348894</v>
+        <v>34.8894</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F573" t="n">
-        <v>0.03497472</v>
+        <v>34.97472</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>5.22</v>
       </c>
       <c r="F574" t="n">
-        <v>0.03472343999999999</v>
+        <v>34.72343999999999</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>5.19</v>
       </c>
       <c r="F575" t="n">
-        <v>0.0346692</v>
+        <v>34.6692</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>5.16</v>
       </c>
       <c r="F576" t="n">
-        <v>0.03455136</v>
+        <v>34.55136</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>5.205</v>
       </c>
       <c r="F577" t="n">
-        <v>0.03489432</v>
+        <v>34.89432</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>5.19</v>
       </c>
       <c r="F578" t="n">
-        <v>0.03485604</v>
+        <v>34.85604</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>5.145</v>
       </c>
       <c r="F579" t="n">
-        <v>0.03471846</v>
+        <v>34.71846</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>5.16</v>
       </c>
       <c r="F580" t="n">
-        <v>0.03481968000000001</v>
+        <v>34.81968000000001</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>5.1</v>
       </c>
       <c r="F581" t="n">
-        <v>0.0345984</v>
+        <v>34.5984</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>5.19</v>
       </c>
       <c r="F582" t="n">
-        <v>0.03489756</v>
+        <v>34.89756</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12023,7 @@
         <v>5.22</v>
       </c>
       <c r="F583" t="n">
-        <v>0.03455639999999999</v>
+        <v>34.55639999999999</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12043,7 @@
         <v>5.355</v>
       </c>
       <c r="F584" t="n">
-        <v>0.03530016</v>
+        <v>35.30016</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12063,7 @@
         <v>5.22</v>
       </c>
       <c r="F585" t="n">
-        <v>0.03441024</v>
+        <v>34.41024</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12083,7 @@
         <v>5.385</v>
       </c>
       <c r="F586" t="n">
-        <v>0.03539022</v>
+        <v>35.39022</v>
       </c>
     </row>
     <row r="587">
@@ -12103,7 +12103,7 @@
         <v>5.37</v>
       </c>
       <c r="F587" t="n">
-        <v>0.03486204</v>
+        <v>34.86204</v>
       </c>
     </row>
     <row r="588">
@@ -12123,7 +12123,7 @@
         <v>5.37</v>
       </c>
       <c r="F588" t="n">
-        <v>0.0347976</v>
+        <v>34.7976</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12143,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F589" t="n">
-        <v>0.03505679999999999</v>
+        <v>35.0568</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12163,7 @@
         <v>5.355</v>
       </c>
       <c r="F590" t="n">
-        <v>0.03489318</v>
+        <v>34.89318</v>
       </c>
     </row>
     <row r="591">
@@ -12183,7 +12183,7 @@
         <v>5.385</v>
       </c>
       <c r="F591" t="n">
-        <v>0.0351102</v>
+        <v>35.1102</v>
       </c>
     </row>
     <row r="592">
@@ -12203,7 +12203,7 @@
         <v>5.355</v>
       </c>
       <c r="F592" t="n">
-        <v>0.03487176</v>
+        <v>34.87176</v>
       </c>
     </row>
     <row r="593">
@@ -12223,7 +12223,7 @@
         <v>5.415</v>
       </c>
       <c r="F593" t="n">
-        <v>0.03521916</v>
+        <v>35.21916</v>
       </c>
     </row>
     <row r="594">
@@ -12243,7 +12243,7 @@
         <v>5.43</v>
       </c>
       <c r="F594" t="n">
-        <v>0.03590316</v>
+        <v>35.90316000000001</v>
       </c>
     </row>
     <row r="595">
@@ -12263,7 +12263,7 @@
         <v>5.31</v>
       </c>
       <c r="F595" t="n">
-        <v>0.03464244</v>
+        <v>34.64243999999999</v>
       </c>
     </row>
     <row r="596">
@@ -12283,7 +12283,7 @@
         <v>5.31</v>
       </c>
       <c r="F596" t="n">
-        <v>0.03474864</v>
+        <v>34.74863999999999</v>
       </c>
     </row>
     <row r="597">
@@ -12303,7 +12303,7 @@
         <v>5.31</v>
       </c>
       <c r="F597" t="n">
-        <v>0.03481236</v>
+        <v>34.81236</v>
       </c>
     </row>
     <row r="598">
@@ -12323,7 +12323,7 @@
         <v>5.325</v>
       </c>
       <c r="F598" t="n">
-        <v>0.0349107</v>
+        <v>34.91070000000001</v>
       </c>
     </row>
     <row r="599">
@@ -12343,7 +12343,7 @@
         <v>5.34</v>
       </c>
       <c r="F599" t="n">
-        <v>0.03498768000000001</v>
+        <v>34.98768</v>
       </c>
     </row>
     <row r="600">
@@ -12363,7 +12363,7 @@
         <v>5.25</v>
       </c>
       <c r="F600" t="n">
-        <v>0.034692</v>
+        <v>34.692</v>
       </c>
     </row>
     <row r="601">
@@ -12383,7 +12383,7 @@
         <v>5.265</v>
       </c>
       <c r="F601" t="n">
-        <v>0.03504384</v>
+        <v>35.04384</v>
       </c>
     </row>
     <row r="602">
@@ -12403,7 +12403,7 @@
         <v>5.265</v>
       </c>
       <c r="F602" t="n">
-        <v>0.03500172</v>
+        <v>35.00172</v>
       </c>
     </row>
     <row r="603">
@@ -12423,7 +12423,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F603" t="n">
-        <v>0.03469757999999999</v>
+        <v>34.69757999999999</v>
       </c>
     </row>
     <row r="604">
@@ -12443,7 +12443,7 @@
         <v>5.31</v>
       </c>
       <c r="F604" t="n">
-        <v>0.03487608</v>
+        <v>34.87607999999999</v>
       </c>
     </row>
     <row r="605">
@@ -12463,7 +12463,7 @@
         <v>5.265</v>
       </c>
       <c r="F605" t="n">
-        <v>0.0345384</v>
+        <v>34.5384</v>
       </c>
     </row>
     <row r="606">
@@ -12483,7 +12483,7 @@
         <v>5.265</v>
       </c>
       <c r="F606" t="n">
-        <v>0.03455946</v>
+        <v>34.55946</v>
       </c>
     </row>
     <row r="607">
@@ -12503,7 +12503,7 @@
         <v>5.325</v>
       </c>
       <c r="F607" t="n">
-        <v>0.0349746</v>
+        <v>34.9746</v>
       </c>
     </row>
     <row r="608">
@@ -12523,7 +12523,7 @@
         <v>5.31</v>
       </c>
       <c r="F608" t="n">
-        <v>0.03485484</v>
+        <v>34.85484</v>
       </c>
     </row>
     <row r="609">
@@ -12543,7 +12543,7 @@
         <v>5.325</v>
       </c>
       <c r="F609" t="n">
-        <v>0.0349746</v>
+        <v>34.9746</v>
       </c>
     </row>
     <row r="610">
@@ -12563,7 +12563,7 @@
         <v>5.265</v>
       </c>
       <c r="F610" t="n">
-        <v>0.03460158</v>
+        <v>34.60158</v>
       </c>
     </row>
     <row r="611">
@@ -12583,7 +12583,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F611" t="n">
-        <v>0.03472128</v>
+        <v>34.72128</v>
       </c>
     </row>
     <row r="612">
@@ -12603,7 +12603,7 @@
         <v>5.31</v>
       </c>
       <c r="F612" t="n">
-        <v>0.0349398</v>
+        <v>34.9398</v>
       </c>
     </row>
     <row r="613">
@@ -12623,7 +12623,7 @@
         <v>5.295</v>
       </c>
       <c r="F613" t="n">
-        <v>0.03490464</v>
+        <v>34.90464</v>
       </c>
     </row>
     <row r="614">
@@ -12643,7 +12643,7 @@
         <v>5.295</v>
       </c>
       <c r="F614" t="n">
-        <v>0.03496817999999999</v>
+        <v>34.96817999999999</v>
       </c>
     </row>
     <row r="615">
@@ -12663,7 +12663,7 @@
         <v>5.25</v>
       </c>
       <c r="F615" t="n">
-        <v>0.034713</v>
+        <v>34.713</v>
       </c>
     </row>
     <row r="616">
@@ -12683,7 +12683,7 @@
         <v>5.22</v>
       </c>
       <c r="F616" t="n">
-        <v>0.03455639999999999</v>
+        <v>34.55639999999999</v>
       </c>
     </row>
     <row r="617">
@@ -12703,7 +12703,7 @@
         <v>5.205</v>
       </c>
       <c r="F617" t="n">
-        <v>0.03447792</v>
+        <v>34.47792</v>
       </c>
     </row>
     <row r="618">
@@ -12723,7 +12723,7 @@
         <v>5.295</v>
       </c>
       <c r="F618" t="n">
-        <v>0.03507408</v>
+        <v>35.07408</v>
       </c>
     </row>
     <row r="619">
@@ -12743,7 +12743,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F619" t="n">
-        <v>0.03469757999999999</v>
+        <v>34.69757999999999</v>
       </c>
     </row>
     <row r="620">
@@ -12763,7 +12763,7 @@
         <v>5.22</v>
       </c>
       <c r="F620" t="n">
-        <v>0.03457728</v>
+        <v>34.57728</v>
       </c>
     </row>
     <row r="621">
@@ -12783,7 +12783,7 @@
         <v>5.265</v>
       </c>
       <c r="F621" t="n">
-        <v>0.03481218</v>
+        <v>34.81218</v>
       </c>
     </row>
     <row r="622">
@@ -12803,7 +12803,7 @@
         <v>5.22</v>
       </c>
       <c r="F622" t="n">
-        <v>0.03447288</v>
+        <v>34.47288</v>
       </c>
     </row>
     <row r="623">
@@ -12823,7 +12823,7 @@
         <v>5.25</v>
       </c>
       <c r="F623" t="n">
-        <v>0.034629</v>
+        <v>34.629</v>
       </c>
     </row>
     <row r="624">
@@ -12843,7 +12843,7 @@
         <v>5.265</v>
       </c>
       <c r="F624" t="n">
-        <v>0.03464369999999999</v>
+        <v>34.6437</v>
       </c>
     </row>
     <row r="625">
@@ -12863,7 +12863,7 @@
         <v>5.325</v>
       </c>
       <c r="F625" t="n">
-        <v>0.03501720000000001</v>
+        <v>35.01720000000001</v>
       </c>
     </row>
     <row r="626">
@@ -12883,7 +12883,7 @@
         <v>5.31</v>
       </c>
       <c r="F626" t="n">
-        <v>0.03491856</v>
+        <v>34.91856</v>
       </c>
     </row>
     <row r="627">
@@ -12903,7 +12903,7 @@
         <v>5.25</v>
       </c>
       <c r="F627" t="n">
-        <v>0.034629</v>
+        <v>34.629</v>
       </c>
     </row>
     <row r="628">
@@ -12923,7 +12923,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F628" t="n">
-        <v>0.03486912</v>
+        <v>34.86912</v>
       </c>
     </row>
     <row r="629">
@@ -12943,7 +12943,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F629" t="n">
-        <v>0.03482688</v>
+        <v>34.82688</v>
       </c>
     </row>
     <row r="630">
@@ -12963,7 +12963,7 @@
         <v>5.295</v>
       </c>
       <c r="F630" t="n">
-        <v>0.03488346</v>
+        <v>34.88346</v>
       </c>
     </row>
     <row r="631">
@@ -12983,7 +12983,7 @@
         <v>5.325</v>
       </c>
       <c r="F631" t="n">
-        <v>0.0349533</v>
+        <v>34.9533</v>
       </c>
     </row>
     <row r="632">
@@ -13003,7 +13003,7 @@
         <v>5.31</v>
       </c>
       <c r="F632" t="n">
-        <v>0.03481236</v>
+        <v>34.81236</v>
       </c>
     </row>
     <row r="633">
@@ -13023,7 +13023,7 @@
         <v>5.34</v>
       </c>
       <c r="F633" t="n">
-        <v>0.03490224</v>
+        <v>34.90224</v>
       </c>
     </row>
     <row r="634">
@@ -13043,7 +13043,7 @@
         <v>5.31</v>
       </c>
       <c r="F634" t="n">
-        <v>0.03489732</v>
+        <v>34.89732</v>
       </c>
     </row>
     <row r="635">
@@ -13063,7 +13063,7 @@
         <v>5.325</v>
       </c>
       <c r="F635" t="n">
-        <v>0.0349959</v>
+        <v>34.99590000000001</v>
       </c>
     </row>
     <row r="636">
@@ -13083,7 +13083,7 @@
         <v>5.31</v>
       </c>
       <c r="F636" t="n">
-        <v>0.03489732</v>
+        <v>34.89732</v>
       </c>
     </row>
     <row r="637">
@@ -13103,7 +13103,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F637" t="n">
-        <v>0.03472128</v>
+        <v>34.72128</v>
       </c>
     </row>
     <row r="638">
@@ -13123,7 +13123,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F638" t="n">
-        <v>0.03472128</v>
+        <v>34.72128</v>
       </c>
     </row>
     <row r="639">
@@ -13143,7 +13143,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F639" t="n">
-        <v>0.034848</v>
+        <v>34.848</v>
       </c>
     </row>
     <row r="640">
@@ -13163,7 +13163,7 @@
         <v>5.22</v>
       </c>
       <c r="F640" t="n">
-        <v>0.03455639999999999</v>
+        <v>34.55639999999999</v>
       </c>
     </row>
     <row r="641">
@@ -13183,7 +13183,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F641" t="n">
-        <v>0.03473945999999999</v>
+        <v>34.73945999999999</v>
       </c>
     </row>
     <row r="642">
@@ -13203,7 +13203,7 @@
         <v>5.265</v>
       </c>
       <c r="F642" t="n">
-        <v>0.03500172</v>
+        <v>35.00172</v>
       </c>
     </row>
     <row r="643">
@@ -13223,7 +13223,7 @@
         <v>5.205</v>
       </c>
       <c r="F643" t="n">
-        <v>0.03468611999999999</v>
+        <v>34.68611999999999</v>
       </c>
     </row>
     <row r="644">
@@ -13243,7 +13243,7 @@
         <v>5.22</v>
       </c>
       <c r="F644" t="n">
-        <v>0.03484872</v>
+        <v>34.84872</v>
       </c>
     </row>
     <row r="645">
@@ -13263,7 +13263,7 @@
         <v>5.16</v>
       </c>
       <c r="F645" t="n">
-        <v>0.03457200000000001</v>
+        <v>34.57200000000001</v>
       </c>
     </row>
     <row r="646">
@@ -13283,7 +13283,7 @@
         <v>5.16</v>
       </c>
       <c r="F646" t="n">
-        <v>0.03459264</v>
+        <v>34.59264</v>
       </c>
     </row>
     <row r="647">
@@ -13303,7 +13303,7 @@
         <v>5.19</v>
       </c>
       <c r="F647" t="n">
-        <v>0.03468996</v>
+        <v>34.68996</v>
       </c>
     </row>
     <row r="648">
@@ -13323,7 +13323,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F648" t="n">
-        <v>0.03514368</v>
+        <v>35.14368</v>
       </c>
     </row>
     <row r="649">
@@ -13343,7 +13343,7 @@
         <v>5.22</v>
       </c>
       <c r="F649" t="n">
-        <v>0.03447288</v>
+        <v>34.47288</v>
       </c>
     </row>
     <row r="650">
@@ -13363,7 +13363,7 @@
         <v>5.355</v>
       </c>
       <c r="F650" t="n">
-        <v>0.03527874</v>
+        <v>35.27874000000001</v>
       </c>
     </row>
     <row r="651">
@@ -13383,7 +13383,7 @@
         <v>5.31</v>
       </c>
       <c r="F651" t="n">
-        <v>0.03485484</v>
+        <v>34.85484</v>
       </c>
     </row>
     <row r="652">
@@ -13403,7 +13403,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F652" t="n">
-        <v>0.0343416</v>
+        <v>34.3416</v>
       </c>
     </row>
     <row r="653">
@@ -13423,7 +13423,7 @@
         <v>5.295</v>
       </c>
       <c r="F653" t="n">
-        <v>0.03481992</v>
+        <v>34.81992</v>
       </c>
     </row>
     <row r="654">
@@ -13443,7 +13443,7 @@
         <v>5.295</v>
       </c>
       <c r="F654" t="n">
-        <v>0.03488346</v>
+        <v>34.88346</v>
       </c>
     </row>
     <row r="655">
@@ -13463,7 +13463,7 @@
         <v>5.31</v>
       </c>
       <c r="F655" t="n">
-        <v>0.03506724</v>
+        <v>35.06724</v>
       </c>
     </row>
     <row r="656">
@@ -13483,7 +13483,7 @@
         <v>5.31</v>
       </c>
       <c r="F656" t="n">
-        <v>0.03498228</v>
+        <v>34.98228</v>
       </c>
     </row>
     <row r="657">
@@ -13503,7 +13503,7 @@
         <v>5.415</v>
       </c>
       <c r="F657" t="n">
-        <v>0.03526248000000001</v>
+        <v>35.26248000000001</v>
       </c>
     </row>
     <row r="658">
@@ -13523,7 +13523,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F658" t="n">
-        <v>0.0350352</v>
+        <v>35.0352</v>
       </c>
     </row>
     <row r="659">
@@ -13543,7 +13543,7 @@
         <v>5.355</v>
       </c>
       <c r="F659" t="n">
-        <v>0.03467898</v>
+        <v>34.67898</v>
       </c>
     </row>
     <row r="660">
@@ -13563,7 +13563,7 @@
         <v>5.34</v>
       </c>
       <c r="F660" t="n">
-        <v>0.03462456000000001</v>
+        <v>34.62456000000001</v>
       </c>
     </row>
     <row r="661">
@@ -13583,7 +13583,7 @@
         <v>5.37</v>
       </c>
       <c r="F661" t="n">
-        <v>0.03484056000000001</v>
+        <v>34.84056000000001</v>
       </c>
     </row>
     <row r="662">
@@ -13603,7 +13603,7 @@
         <v>5.325</v>
       </c>
       <c r="F662" t="n">
-        <v>0.0345699</v>
+        <v>34.5699</v>
       </c>
     </row>
     <row r="663">
@@ -13623,7 +13623,7 @@
         <v>5.34</v>
       </c>
       <c r="F663" t="n">
-        <v>0.03477408000000001</v>
+        <v>34.77408000000001</v>
       </c>
     </row>
     <row r="664">
@@ -13643,7 +13643,7 @@
         <v>5.34</v>
       </c>
       <c r="F664" t="n">
-        <v>0.03490224</v>
+        <v>34.90224</v>
       </c>
     </row>
     <row r="665">
@@ -13663,7 +13663,7 @@
         <v>5.295</v>
       </c>
       <c r="F665" t="n">
-        <v>0.0346293</v>
+        <v>34.6293</v>
       </c>
     </row>
     <row r="666">
@@ -13683,7 +13683,7 @@
         <v>5.295</v>
       </c>
       <c r="F666" t="n">
-        <v>0.03469284</v>
+        <v>34.69284</v>
       </c>
     </row>
     <row r="667">
@@ -13703,7 +13703,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F667" t="n">
-        <v>0.0354888</v>
+        <v>35.4888</v>
       </c>
     </row>
     <row r="668">
@@ -13723,7 +13723,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F668" t="n">
-        <v>0.03564</v>
+        <v>35.64</v>
       </c>
     </row>
     <row r="669">
@@ -13743,7 +13743,7 @@
         <v>5.085</v>
       </c>
       <c r="F669" t="n">
-        <v>0.0336627</v>
+        <v>33.66269999999999</v>
       </c>
     </row>
     <row r="670">
@@ -13763,7 +13763,7 @@
         <v>5.475</v>
       </c>
       <c r="F670" t="n">
-        <v>0.0362007</v>
+        <v>36.2007</v>
       </c>
     </row>
     <row r="671">
@@ -13783,7 +13783,7 @@
         <v>5.055</v>
       </c>
       <c r="F671" t="n">
-        <v>0.03334278</v>
+        <v>33.34278</v>
       </c>
     </row>
     <row r="672">
@@ -13803,7 +13803,7 @@
         <v>5.415</v>
       </c>
       <c r="F672" t="n">
-        <v>0.03573900000000001</v>
+        <v>35.739</v>
       </c>
     </row>
     <row r="673">
@@ -13823,7 +13823,7 @@
         <v>5.475</v>
       </c>
       <c r="F673" t="n">
-        <v>0.0365292</v>
+        <v>36.5292</v>
       </c>
     </row>
     <row r="674">
@@ -13843,7 +13843,7 @@
         <v>5.52</v>
       </c>
       <c r="F674" t="n">
-        <v>0.03645408</v>
+        <v>36.45408</v>
       </c>
     </row>
     <row r="675">
@@ -13863,7 +13863,7 @@
         <v>5.385</v>
       </c>
       <c r="F675" t="n">
-        <v>0.03517482</v>
+        <v>35.17482</v>
       </c>
     </row>
     <row r="676">
@@ -13883,7 +13883,7 @@
         <v>5.385</v>
       </c>
       <c r="F676" t="n">
-        <v>0.03495942</v>
+        <v>34.95942</v>
       </c>
     </row>
     <row r="677">
@@ -13903,7 +13903,7 @@
         <v>5.31</v>
       </c>
       <c r="F677" t="n">
-        <v>0.034515</v>
+        <v>34.515</v>
       </c>
     </row>
     <row r="678">
@@ -13923,7 +13923,7 @@
         <v>5.475</v>
       </c>
       <c r="F678" t="n">
-        <v>0.0356094</v>
+        <v>35.6094</v>
       </c>
     </row>
     <row r="679">
@@ -13943,7 +13943,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F679" t="n">
-        <v>0.03509999999999999</v>
+        <v>35.09999999999999</v>
       </c>
     </row>
     <row r="680">
@@ -13963,7 +13963,7 @@
         <v>5.355</v>
       </c>
       <c r="F680" t="n">
-        <v>0.03472181999999999</v>
+        <v>34.72181999999999</v>
       </c>
     </row>
     <row r="681">
@@ -13983,7 +13983,7 @@
         <v>5.205</v>
       </c>
       <c r="F681" t="n">
-        <v>0.03358266</v>
+        <v>33.58266</v>
       </c>
     </row>
     <row r="682">
@@ -14003,7 +14003,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F682" t="n">
-        <v>0.03644081999999999</v>
+        <v>36.44082</v>
       </c>
     </row>
     <row r="683">
@@ -14023,7 +14023,7 @@
         <v>5.19</v>
       </c>
       <c r="F683" t="n">
-        <v>0.03348588</v>
+        <v>33.48588</v>
       </c>
     </row>
     <row r="684">
@@ -14043,7 +14043,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F684" t="n">
-        <v>0.03646344</v>
+        <v>36.46344</v>
       </c>
     </row>
     <row r="685">
@@ -14063,7 +14063,7 @@
         <v>5.34</v>
       </c>
       <c r="F685" t="n">
-        <v>0.0344964</v>
+        <v>34.4964</v>
       </c>
     </row>
     <row r="686">
@@ -14083,7 +14083,7 @@
         <v>5.25</v>
       </c>
       <c r="F686" t="n">
-        <v>0.03402</v>
+        <v>34.02</v>
       </c>
     </row>
     <row r="687">
@@ -14103,7 +14103,7 @@
         <v>5.64</v>
       </c>
       <c r="F687" t="n">
-        <v>0.03652464</v>
+        <v>36.52464</v>
       </c>
     </row>
     <row r="688">
@@ -14123,7 +14123,7 @@
         <v>5.475</v>
       </c>
       <c r="F688" t="n">
-        <v>0.035478</v>
+        <v>35.478</v>
       </c>
     </row>
     <row r="689">
@@ -14143,7 +14143,7 @@
         <v>5.145</v>
       </c>
       <c r="F689" t="n">
-        <v>0.03329844</v>
+        <v>33.29844</v>
       </c>
     </row>
     <row r="690">
@@ -14163,7 +14163,7 @@
         <v>5.19</v>
       </c>
       <c r="F690" t="n">
-        <v>0.03354815999999999</v>
+        <v>33.54815999999999</v>
       </c>
     </row>
     <row r="691">
@@ -14183,7 +14183,7 @@
         <v>5.475</v>
       </c>
       <c r="F691" t="n">
-        <v>0.0354342</v>
+        <v>35.4342</v>
       </c>
     </row>
     <row r="692">
@@ -14203,7 +14203,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F692" t="n">
-        <v>0.03668964</v>
+        <v>36.68964</v>
       </c>
     </row>
     <row r="693">
@@ -14223,7 +14223,7 @@
         <v>5.444999999999999</v>
       </c>
       <c r="F693" t="n">
-        <v>0.03554495999999999</v>
+        <v>35.54495999999999</v>
       </c>
     </row>
     <row r="694">
@@ -14243,7 +14243,7 @@
         <v>5.13</v>
       </c>
       <c r="F694" t="n">
-        <v>0.0335502</v>
+        <v>33.5502</v>
       </c>
     </row>
     <row r="695">
@@ -14263,7 +14263,7 @@
         <v>5.115</v>
       </c>
       <c r="F695" t="n">
-        <v>0.03347256</v>
+        <v>33.47256</v>
       </c>
     </row>
     <row r="696">
@@ -14283,7 +14283,7 @@
         <v>5.145</v>
       </c>
       <c r="F696" t="n">
-        <v>0.03356598</v>
+        <v>33.56598</v>
       </c>
     </row>
     <row r="697">
@@ -14303,7 +14303,7 @@
         <v>5.325</v>
       </c>
       <c r="F697" t="n">
-        <v>0.0345912</v>
+        <v>34.5912</v>
       </c>
     </row>
     <row r="698">
@@ -14323,7 +14323,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F698" t="n">
-        <v>0.03662177999999999</v>
+        <v>36.62177999999999</v>
       </c>
     </row>
     <row r="699">
@@ -14343,7 +14343,7 @@
         <v>5.67</v>
       </c>
       <c r="F699" t="n">
-        <v>0.03665088</v>
+        <v>36.65087999999999</v>
       </c>
     </row>
     <row r="700">
@@ -14363,7 +14363,7 @@
         <v>5.175</v>
       </c>
       <c r="F700" t="n">
-        <v>0.0335133</v>
+        <v>33.5133</v>
       </c>
     </row>
     <row r="701">
@@ -14383,7 +14383,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F701" t="n">
-        <v>0.03478464</v>
+        <v>34.78464</v>
       </c>
     </row>
     <row r="702">
@@ -14403,7 +14403,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F702" t="n">
-        <v>0.03659916</v>
+        <v>36.59916</v>
       </c>
     </row>
     <row r="703">
@@ -14423,7 +14423,7 @@
         <v>5.58</v>
       </c>
       <c r="F703" t="n">
-        <v>0.03606912</v>
+        <v>36.06912000000001</v>
       </c>
     </row>
     <row r="704">
@@ -14443,7 +14443,7 @@
         <v>5.355</v>
       </c>
       <c r="F704" t="n">
-        <v>0.03414348</v>
+        <v>34.14348</v>
       </c>
     </row>
     <row r="705">
@@ -14463,7 +14463,7 @@
         <v>5.505</v>
       </c>
       <c r="F705" t="n">
-        <v>0.03498978</v>
+        <v>34.98978</v>
       </c>
     </row>
     <row r="706">
@@ -14483,7 +14483,7 @@
         <v>5.595</v>
       </c>
       <c r="F706" t="n">
-        <v>0.0354723</v>
+        <v>35.4723</v>
       </c>
     </row>
     <row r="707">
@@ -14503,7 +14503,7 @@
         <v>5.52</v>
       </c>
       <c r="F707" t="n">
-        <v>0.03493056</v>
+        <v>34.93056</v>
       </c>
     </row>
     <row r="708">
@@ -14523,7 +14523,7 @@
         <v>5.55</v>
       </c>
       <c r="F708" t="n">
-        <v>0.0351426</v>
+        <v>35.1426</v>
       </c>
     </row>
     <row r="709">
@@ -14543,7 +14543,7 @@
         <v>5.475</v>
       </c>
       <c r="F709" t="n">
-        <v>0.0347553</v>
+        <v>34.75530000000001</v>
       </c>
     </row>
     <row r="710">
@@ -14563,7 +14563,7 @@
         <v>5.49</v>
       </c>
       <c r="F710" t="n">
-        <v>0.0349164</v>
+        <v>34.9164</v>
       </c>
     </row>
     <row r="711">
@@ -14583,7 +14583,7 @@
         <v>5.43</v>
       </c>
       <c r="F711" t="n">
-        <v>0.0346434</v>
+        <v>34.6434</v>
       </c>
     </row>
     <row r="712">
@@ -14603,7 +14603,7 @@
         <v>5.46</v>
       </c>
       <c r="F712" t="n">
-        <v>0.03503136</v>
+        <v>35.03136</v>
       </c>
     </row>
     <row r="713">
@@ -14623,7 +14623,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F713" t="n">
-        <v>0.03482688</v>
+        <v>34.82688</v>
       </c>
     </row>
     <row r="714">
@@ -14643,7 +14643,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F714" t="n">
-        <v>0.03520704</v>
+        <v>35.20704</v>
       </c>
     </row>
     <row r="715">
@@ -14663,7 +14663,7 @@
         <v>5.265</v>
       </c>
       <c r="F715" t="n">
-        <v>0.03517019999999999</v>
+        <v>35.17019999999999</v>
       </c>
     </row>
     <row r="716">
@@ -14683,7 +14683,7 @@
         <v>5.325</v>
       </c>
       <c r="F716" t="n">
-        <v>0.03552839999999999</v>
+        <v>35.52839999999999</v>
       </c>
     </row>
     <row r="717">
@@ -14703,7 +14703,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F717" t="n">
-        <v>0.03384731999999999</v>
+        <v>33.84732</v>
       </c>
     </row>
     <row r="718">
@@ -14723,7 +14723,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F718" t="n">
-        <v>0.0333606</v>
+        <v>33.3606</v>
       </c>
     </row>
     <row r="719">
@@ -14743,7 +14743,7 @@
         <v>5.415</v>
       </c>
       <c r="F719" t="n">
-        <v>0.03567402</v>
+        <v>35.67402</v>
       </c>
     </row>
     <row r="720">
@@ -14763,7 +14763,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F720" t="n">
-        <v>0.03655475999999999</v>
+        <v>36.55475999999999</v>
       </c>
     </row>
     <row r="721">
@@ -14783,7 +14783,7 @@
         <v>5.625</v>
       </c>
       <c r="F721" t="n">
-        <v>0.03654</v>
+        <v>36.54000000000001</v>
       </c>
     </row>
     <row r="722">
@@ -14803,7 +14803,7 @@
         <v>5.58</v>
       </c>
       <c r="F722" t="n">
-        <v>0.03651552</v>
+        <v>36.51552</v>
       </c>
     </row>
     <row r="723">
@@ -14823,7 +14823,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F723" t="n">
-        <v>0.03662207999999999</v>
+        <v>36.62207999999999</v>
       </c>
     </row>
     <row r="724">
@@ -14843,7 +14843,7 @@
         <v>5.475</v>
       </c>
       <c r="F724" t="n">
-        <v>0.0354342</v>
+        <v>35.4342</v>
       </c>
     </row>
     <row r="725">
@@ -14863,7 +14863,7 @@
         <v>5.175</v>
       </c>
       <c r="F725" t="n">
-        <v>0.0334719</v>
+        <v>33.4719</v>
       </c>
     </row>
     <row r="726">
@@ -14883,7 +14883,7 @@
         <v>5.685</v>
       </c>
       <c r="F726" t="n">
-        <v>0.03654318</v>
+        <v>36.54318</v>
       </c>
     </row>
     <row r="727">
@@ -14903,7 +14903,7 @@
         <v>5.475</v>
       </c>
       <c r="F727" t="n">
-        <v>0.03479909999999999</v>
+        <v>34.7991</v>
       </c>
     </row>
     <row r="728">
@@ -14923,7 +14923,7 @@
         <v>5.34</v>
       </c>
       <c r="F728" t="n">
-        <v>0.03357792</v>
+        <v>33.57792</v>
       </c>
     </row>
     <row r="729">
@@ -14943,7 +14943,7 @@
         <v>5.355</v>
       </c>
       <c r="F729" t="n">
-        <v>0.03350088</v>
+        <v>33.50088</v>
       </c>
     </row>
     <row r="730">
@@ -14963,7 +14963,7 @@
         <v>5.355</v>
       </c>
       <c r="F730" t="n">
-        <v>0.03354372</v>
+        <v>33.54372</v>
       </c>
     </row>
     <row r="731">
@@ -14983,7 +14983,7 @@
         <v>5.31</v>
       </c>
       <c r="F731" t="n">
-        <v>0.03351672</v>
+        <v>33.51672</v>
       </c>
     </row>
     <row r="732">
@@ -15003,7 +15003,7 @@
         <v>5.265</v>
       </c>
       <c r="F732" t="n">
-        <v>0.03350645999999999</v>
+        <v>33.50645999999999</v>
       </c>
     </row>
     <row r="733">
@@ -15023,7 +15023,7 @@
         <v>5.49</v>
       </c>
       <c r="F733" t="n">
-        <v>0.03544344</v>
+        <v>35.44344</v>
       </c>
     </row>
     <row r="734">
@@ -15043,7 +15043,7 @@
         <v>5.64</v>
       </c>
       <c r="F734" t="n">
-        <v>0.03650208</v>
+        <v>36.50208</v>
       </c>
     </row>
     <row r="735">
@@ -15063,7 +15063,7 @@
         <v>5.205</v>
       </c>
       <c r="F735" t="n">
-        <v>0.03358266</v>
+        <v>33.58266</v>
       </c>
     </row>
     <row r="736">
@@ -15083,7 +15083,7 @@
         <v>5.625</v>
       </c>
       <c r="F736" t="n">
-        <v>0.0361575</v>
+        <v>36.1575</v>
       </c>
     </row>
     <row r="737">
@@ -15103,7 +15103,7 @@
         <v>5.415</v>
       </c>
       <c r="F737" t="n">
-        <v>0.03504588</v>
+        <v>35.04588</v>
       </c>
     </row>
     <row r="738">
@@ -15123,7 +15123,7 @@
         <v>5.43</v>
       </c>
       <c r="F738" t="n">
-        <v>0.03527328</v>
+        <v>35.27328</v>
       </c>
     </row>
     <row r="739">
@@ -15143,7 +15143,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F739" t="n">
-        <v>0.03514319999999999</v>
+        <v>35.14319999999999</v>
       </c>
     </row>
     <row r="740">
@@ -15163,7 +15163,7 @@
         <v>5.34</v>
       </c>
       <c r="F740" t="n">
-        <v>0.0348168</v>
+        <v>34.8168</v>
       </c>
     </row>
     <row r="741">
@@ -15183,7 +15183,7 @@
         <v>5.34</v>
       </c>
       <c r="F741" t="n">
-        <v>0.03477408000000001</v>
+        <v>34.77408000000001</v>
       </c>
     </row>
     <row r="742">
@@ -15203,7 +15203,7 @@
         <v>5.37</v>
       </c>
       <c r="F742" t="n">
-        <v>0.03492648</v>
+        <v>34.92648000000001</v>
       </c>
     </row>
     <row r="743">
@@ -15223,7 +15223,7 @@
         <v>5.355</v>
       </c>
       <c r="F743" t="n">
-        <v>0.03489318</v>
+        <v>34.89318</v>
       </c>
     </row>
     <row r="744">
@@ -15243,7 +15243,7 @@
         <v>5.385</v>
       </c>
       <c r="F744" t="n">
-        <v>0.03523944</v>
+        <v>35.23943999999999</v>
       </c>
     </row>
     <row r="745">
@@ -15263,7 +15263,7 @@
         <v>5.325</v>
       </c>
       <c r="F745" t="n">
-        <v>0.0351663</v>
+        <v>35.1663</v>
       </c>
     </row>
     <row r="746">
@@ -15283,7 +15283,7 @@
         <v>5.34</v>
       </c>
       <c r="F746" t="n">
-        <v>0.03541488</v>
+        <v>35.41488</v>
       </c>
     </row>
     <row r="747">
@@ -15303,7 +15303,7 @@
         <v>5.16</v>
       </c>
       <c r="F747" t="n">
-        <v>0.03438624</v>
+        <v>34.38624</v>
       </c>
     </row>
     <row r="748">
@@ -15323,7 +15323,7 @@
         <v>5.325</v>
       </c>
       <c r="F748" t="n">
-        <v>0.0358266</v>
+        <v>35.8266</v>
       </c>
     </row>
     <row r="749">
@@ -15343,7 +15343,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F749" t="n">
-        <v>0.0368064</v>
+        <v>36.8064</v>
       </c>
     </row>
     <row r="750">
@@ -15363,7 +15363,7 @@
         <v>5.49</v>
       </c>
       <c r="F750" t="n">
-        <v>0.03698064</v>
+        <v>36.98064</v>
       </c>
     </row>
     <row r="751">
@@ -15383,7 +15383,7 @@
         <v>5.205</v>
       </c>
       <c r="F751" t="n">
-        <v>0.0340407</v>
+        <v>34.0407</v>
       </c>
     </row>
     <row r="752">
@@ -15403,7 +15403,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F752" t="n">
-        <v>0.03655475999999999</v>
+        <v>36.55475999999999</v>
       </c>
     </row>
     <row r="753">
@@ -15423,7 +15423,7 @@
         <v>5.34</v>
       </c>
       <c r="F753" t="n">
-        <v>0.03532944</v>
+        <v>35.32944</v>
       </c>
     </row>
     <row r="754">
@@ -15443,7 +15443,7 @@
         <v>5.49</v>
       </c>
       <c r="F754" t="n">
-        <v>0.03555324</v>
+        <v>35.55324</v>
       </c>
     </row>
     <row r="755">
@@ -15463,7 +15463,7 @@
         <v>5.43</v>
       </c>
       <c r="F755" t="n">
-        <v>0.03501264</v>
+        <v>35.01264</v>
       </c>
     </row>
     <row r="756">
@@ -15483,7 +15483,7 @@
         <v>5.565</v>
       </c>
       <c r="F756" t="n">
-        <v>0.03588312</v>
+        <v>35.88312</v>
       </c>
     </row>
     <row r="757">
@@ -15503,7 +15503,7 @@
         <v>5.205</v>
       </c>
       <c r="F757" t="n">
-        <v>0.03358266</v>
+        <v>33.58266</v>
       </c>
     </row>
     <row r="758">
@@ -15523,7 +15523,7 @@
         <v>5.475</v>
       </c>
       <c r="F758" t="n">
-        <v>0.0353685</v>
+        <v>35.3685</v>
       </c>
     </row>
     <row r="759">
@@ -15543,7 +15543,7 @@
         <v>5.685</v>
       </c>
       <c r="F759" t="n">
-        <v>0.03677058</v>
+        <v>36.77058</v>
       </c>
     </row>
     <row r="760">
@@ -15563,7 +15563,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F760" t="n">
-        <v>0.03332004</v>
+        <v>33.32004</v>
       </c>
     </row>
     <row r="761">
@@ -15583,7 +15583,7 @@
         <v>5.04</v>
       </c>
       <c r="F761" t="n">
-        <v>0.03342528</v>
+        <v>33.42528</v>
       </c>
     </row>
     <row r="762">
@@ -15603,7 +15603,7 @@
         <v>5.625</v>
       </c>
       <c r="F762" t="n">
-        <v>0.03618</v>
+        <v>36.18</v>
       </c>
     </row>
     <row r="763">
@@ -15623,7 +15623,7 @@
         <v>5.475</v>
       </c>
       <c r="F763" t="n">
-        <v>0.0354561</v>
+        <v>35.4561</v>
       </c>
     </row>
     <row r="764">
@@ -15643,7 +15643,7 @@
         <v>5.625</v>
       </c>
       <c r="F764" t="n">
-        <v>0.03663</v>
+        <v>36.63</v>
       </c>
     </row>
     <row r="765">
@@ -15663,7 +15663,7 @@
         <v>5.295</v>
       </c>
       <c r="F765" t="n">
-        <v>0.03503172</v>
+        <v>35.03172</v>
       </c>
     </row>
     <row r="766">
@@ -15683,7 +15683,7 @@
         <v>5.024999999999999</v>
       </c>
       <c r="F766" t="n">
-        <v>0.0334062</v>
+        <v>33.4062</v>
       </c>
     </row>
     <row r="767">
@@ -15703,7 +15703,7 @@
         <v>5.205</v>
       </c>
       <c r="F767" t="n">
-        <v>0.03451956</v>
+        <v>34.51956</v>
       </c>
     </row>
     <row r="768">
@@ -15723,7 +15723,7 @@
         <v>5.205</v>
       </c>
       <c r="F768" t="n">
-        <v>0.03464448</v>
+        <v>34.64448</v>
       </c>
     </row>
     <row r="769">
@@ -15743,7 +15743,7 @@
         <v>5.385</v>
       </c>
       <c r="F769" t="n">
-        <v>0.03582102</v>
+        <v>35.82102</v>
       </c>
     </row>
     <row r="770">
@@ -15763,7 +15763,7 @@
         <v>5.265</v>
       </c>
       <c r="F770" t="n">
-        <v>0.03561246</v>
+        <v>35.61246</v>
       </c>
     </row>
     <row r="771">
@@ -15783,7 +15783,7 @@
         <v>5.16</v>
       </c>
       <c r="F771" t="n">
-        <v>0.03457200000000001</v>
+        <v>34.57200000000001</v>
       </c>
     </row>
     <row r="772">
@@ -15803,7 +15803,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F772" t="n">
-        <v>0.0350745</v>
+        <v>35.0745</v>
       </c>
     </row>
     <row r="773">
@@ -15823,7 +15823,7 @@
         <v>5.385</v>
       </c>
       <c r="F773" t="n">
-        <v>0.03579948</v>
+        <v>35.79948</v>
       </c>
     </row>
     <row r="774">
@@ -15843,7 +15843,7 @@
         <v>5.34</v>
       </c>
       <c r="F774" t="n">
-        <v>0.03520128</v>
+        <v>35.20128</v>
       </c>
     </row>
     <row r="775">
@@ -15863,7 +15863,7 @@
         <v>5.37</v>
       </c>
       <c r="F775" t="n">
-        <v>0.03524868</v>
+        <v>35.24868</v>
       </c>
     </row>
     <row r="776">
@@ -15883,7 +15883,7 @@
         <v>5.325</v>
       </c>
       <c r="F776" t="n">
-        <v>0.0348468</v>
+        <v>34.84679999999999</v>
       </c>
     </row>
     <row r="777">
@@ -15903,7 +15903,7 @@
         <v>5.31</v>
       </c>
       <c r="F777" t="n">
-        <v>0.03476988</v>
+        <v>34.76988</v>
       </c>
     </row>
     <row r="778">
@@ -15923,7 +15923,7 @@
         <v>5.37</v>
       </c>
       <c r="F778" t="n">
-        <v>0.03529164</v>
+        <v>35.29164</v>
       </c>
     </row>
     <row r="779">
@@ -15943,7 +15943,7 @@
         <v>5.34</v>
       </c>
       <c r="F779" t="n">
-        <v>0.03530808</v>
+        <v>35.30808</v>
       </c>
     </row>
     <row r="780">
@@ -15963,7 +15963,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F780" t="n">
-        <v>0.03478134</v>
+        <v>34.78134</v>
       </c>
     </row>
     <row r="781">
@@ -15983,7 +15983,7 @@
         <v>5.355</v>
       </c>
       <c r="F781" t="n">
-        <v>0.03551436</v>
+        <v>35.51436</v>
       </c>
     </row>
     <row r="782">
@@ -16003,7 +16003,7 @@
         <v>5.325</v>
       </c>
       <c r="F782" t="n">
-        <v>0.0351237</v>
+        <v>35.1237</v>
       </c>
     </row>
     <row r="783">
@@ -16023,7 +16023,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F783" t="n">
-        <v>0.0347424</v>
+        <v>34.7424</v>
       </c>
     </row>
     <row r="784">
@@ -16043,7 +16043,7 @@
         <v>5.31</v>
       </c>
       <c r="F784" t="n">
-        <v>0.03487608</v>
+        <v>34.87607999999999</v>
       </c>
     </row>
     <row r="785">
@@ -16063,7 +16063,7 @@
         <v>5.355</v>
       </c>
       <c r="F785" t="n">
-        <v>0.03517164</v>
+        <v>35.17164</v>
       </c>
     </row>
     <row r="786">
@@ -16083,7 +16083,7 @@
         <v>5.37</v>
       </c>
       <c r="F786" t="n">
-        <v>0.03503388</v>
+        <v>35.03388</v>
       </c>
     </row>
     <row r="787">
@@ -16103,7 +16103,7 @@
         <v>5.49</v>
       </c>
       <c r="F787" t="n">
-        <v>0.03533364</v>
+        <v>35.33364</v>
       </c>
     </row>
     <row r="788">
@@ -16123,7 +16123,7 @@
         <v>5.444999999999999</v>
       </c>
       <c r="F788" t="n">
-        <v>0.03491334</v>
+        <v>34.91334</v>
       </c>
     </row>
     <row r="789">
@@ -16143,7 +16143,7 @@
         <v>5.43</v>
       </c>
       <c r="F789" t="n">
-        <v>0.03488232</v>
+        <v>34.88232</v>
       </c>
     </row>
     <row r="790">
@@ -16163,7 +16163,7 @@
         <v>5.49</v>
       </c>
       <c r="F790" t="n">
-        <v>0.03498228</v>
+        <v>34.98228</v>
       </c>
     </row>
     <row r="791">
@@ -16183,7 +16183,7 @@
         <v>5.505</v>
       </c>
       <c r="F791" t="n">
-        <v>0.0349017</v>
+        <v>34.9017</v>
       </c>
     </row>
     <row r="792">
@@ -16203,7 +16203,7 @@
         <v>5.49</v>
       </c>
       <c r="F792" t="n">
-        <v>0.03467484000000001</v>
+        <v>34.67484000000001</v>
       </c>
     </row>
     <row r="793">
@@ -16223,7 +16223,7 @@
         <v>5.58</v>
       </c>
       <c r="F793" t="n">
-        <v>0.03510936</v>
+        <v>35.10936</v>
       </c>
     </row>
     <row r="794">
@@ -16243,7 +16243,7 @@
         <v>5.49</v>
       </c>
       <c r="F794" t="n">
-        <v>0.03465288</v>
+        <v>34.65288</v>
       </c>
     </row>
     <row r="795">
@@ -16263,7 +16263,7 @@
         <v>5.43</v>
       </c>
       <c r="F795" t="n">
-        <v>0.03449136</v>
+        <v>34.49136</v>
       </c>
     </row>
     <row r="796">
@@ -16283,7 +16283,7 @@
         <v>5.52</v>
       </c>
       <c r="F796" t="n">
-        <v>0.0351072</v>
+        <v>35.1072</v>
       </c>
     </row>
     <row r="797">
@@ -16303,7 +16303,7 @@
         <v>5.444999999999999</v>
       </c>
       <c r="F797" t="n">
-        <v>0.03480444</v>
+        <v>34.80444</v>
       </c>
     </row>
     <row r="798">
@@ -16323,7 +16323,7 @@
         <v>5.43</v>
       </c>
       <c r="F798" t="n">
-        <v>0.03488232</v>
+        <v>34.88232</v>
       </c>
     </row>
     <row r="799">
@@ -16343,7 +16343,7 @@
         <v>5.415</v>
       </c>
       <c r="F799" t="n">
-        <v>0.03491592</v>
+        <v>34.91592</v>
       </c>
     </row>
     <row r="800">
@@ -16363,7 +16363,7 @@
         <v>5.415</v>
       </c>
       <c r="F800" t="n">
-        <v>0.03493758</v>
+        <v>34.93758</v>
       </c>
     </row>
     <row r="801">
@@ -16383,7 +16383,7 @@
         <v>5.43</v>
       </c>
       <c r="F801" t="n">
-        <v>0.03501264</v>
+        <v>35.01264</v>
       </c>
     </row>
     <row r="802">
@@ -16403,7 +16403,7 @@
         <v>5.385</v>
       </c>
       <c r="F802" t="n">
-        <v>0.03476556</v>
+        <v>34.76556</v>
       </c>
     </row>
     <row r="803">
@@ -16423,7 +16423,7 @@
         <v>5.34</v>
       </c>
       <c r="F803" t="n">
-        <v>0.03494496</v>
+        <v>34.94495999999999</v>
       </c>
     </row>
     <row r="804">
@@ -16443,7 +16443,7 @@
         <v>5.22</v>
       </c>
       <c r="F804" t="n">
-        <v>0.03489047999999999</v>
+        <v>34.89047999999999</v>
       </c>
     </row>
     <row r="805">
@@ -16463,7 +16463,7 @@
         <v>5.19</v>
       </c>
       <c r="F805" t="n">
-        <v>0.03504288</v>
+        <v>35.04288</v>
       </c>
     </row>
     <row r="806">
@@ -16483,7 +16483,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F806" t="n">
-        <v>0.03497472</v>
+        <v>34.97472</v>
       </c>
     </row>
     <row r="807">
@@ -16503,7 +16503,7 @@
         <v>5.355</v>
       </c>
       <c r="F807" t="n">
-        <v>0.03519306</v>
+        <v>35.19306</v>
       </c>
     </row>
     <row r="808">
@@ -16523,7 +16523,7 @@
         <v>5.43</v>
       </c>
       <c r="F808" t="n">
-        <v>0.03542532</v>
+        <v>35.42532000000001</v>
       </c>
     </row>
     <row r="809">
@@ -16543,7 +16543,7 @@
         <v>5.37</v>
       </c>
       <c r="F809" t="n">
-        <v>0.03484056000000001</v>
+        <v>34.84056000000001</v>
       </c>
     </row>
     <row r="810">
@@ -16563,7 +16563,7 @@
         <v>5.325</v>
       </c>
       <c r="F810" t="n">
-        <v>0.0348468</v>
+        <v>34.84679999999999</v>
       </c>
     </row>
     <row r="811">
@@ -16583,7 +16583,7 @@
         <v>5.415</v>
       </c>
       <c r="F811" t="n">
-        <v>0.03534912</v>
+        <v>35.34912</v>
       </c>
     </row>
     <row r="812">
@@ -16603,7 +16603,7 @@
         <v>5.43</v>
       </c>
       <c r="F812" t="n">
-        <v>0.03520812</v>
+        <v>35.20812</v>
       </c>
     </row>
     <row r="813">
@@ -16623,7 +16623,7 @@
         <v>5.46</v>
       </c>
       <c r="F813" t="n">
-        <v>0.03520608</v>
+        <v>35.20608</v>
       </c>
     </row>
     <row r="814">
@@ -16643,7 +16643,7 @@
         <v>5.46</v>
       </c>
       <c r="F814" t="n">
-        <v>0.03500952</v>
+        <v>35.00952</v>
       </c>
     </row>
     <row r="815">
@@ -16663,7 +16663,7 @@
         <v>5.46</v>
       </c>
       <c r="F815" t="n">
-        <v>0.03503136</v>
+        <v>35.03136</v>
       </c>
     </row>
     <row r="816">
@@ -16683,7 +16683,7 @@
         <v>5.43</v>
       </c>
       <c r="F816" t="n">
-        <v>0.0349692</v>
+        <v>34.9692</v>
       </c>
     </row>
     <row r="817">
@@ -16703,7 +16703,7 @@
         <v>4.605</v>
       </c>
       <c r="F817" t="n">
-        <v>0.02987724</v>
+        <v>29.87724</v>
       </c>
     </row>
     <row r="818">
@@ -16723,7 +16723,7 @@
         <v>4.59</v>
       </c>
       <c r="F818" t="n">
-        <v>0.02977992</v>
+        <v>29.77992</v>
       </c>
     </row>
     <row r="819">
@@ -16743,7 +16743,7 @@
         <v>4.665</v>
       </c>
       <c r="F819" t="n">
-        <v>0.02983734</v>
+        <v>29.83734</v>
       </c>
     </row>
     <row r="820">
@@ -16763,7 +16763,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F820" t="n">
-        <v>0.02980386</v>
+        <v>29.80386</v>
       </c>
     </row>
     <row r="821">
@@ -16783,7 +16783,7 @@
         <v>4.71</v>
       </c>
       <c r="F821" t="n">
-        <v>0.02978604</v>
+        <v>29.78604</v>
       </c>
     </row>
     <row r="822">
@@ -16803,7 +16803,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F822" t="n">
-        <v>0.02974752</v>
+        <v>29.74752</v>
       </c>
     </row>
     <row r="823">
@@ -16823,7 +16823,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F823" t="n">
-        <v>0.0298602</v>
+        <v>29.8602</v>
       </c>
     </row>
     <row r="824">
@@ -16843,7 +16843,7 @@
         <v>4.665</v>
       </c>
       <c r="F824" t="n">
-        <v>0.02972538</v>
+        <v>29.72538</v>
       </c>
     </row>
     <row r="825">
@@ -16863,7 +16863,7 @@
         <v>4.68</v>
       </c>
       <c r="F825" t="n">
-        <v>0.02974608</v>
+        <v>29.74608</v>
       </c>
     </row>
     <row r="826">
@@ -16883,7 +16883,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F826" t="n">
-        <v>0.02969117999999999</v>
+        <v>29.69117999999999</v>
       </c>
     </row>
     <row r="827">
@@ -16903,7 +16903,7 @@
         <v>4.725</v>
       </c>
       <c r="F827" t="n">
-        <v>0.0296919</v>
+        <v>29.6919</v>
       </c>
     </row>
     <row r="828">
@@ -16923,7 +16923,7 @@
         <v>4.755</v>
       </c>
       <c r="F828" t="n">
-        <v>0.02970924</v>
+        <v>29.70924</v>
       </c>
     </row>
     <row r="829">
@@ -16943,7 +16943,7 @@
         <v>4.785</v>
       </c>
       <c r="F829" t="n">
-        <v>0.02978184</v>
+        <v>29.78184</v>
       </c>
     </row>
     <row r="830">
@@ -16963,7 +16963,7 @@
         <v>4.77</v>
       </c>
       <c r="F830" t="n">
-        <v>0.02972664</v>
+        <v>29.72664</v>
       </c>
     </row>
     <row r="831">
@@ -16983,7 +16983,7 @@
         <v>4.755</v>
       </c>
       <c r="F831" t="n">
-        <v>0.02969022</v>
+        <v>29.69022</v>
       </c>
     </row>
     <row r="832">
@@ -17003,7 +17003,7 @@
         <v>4.755</v>
       </c>
       <c r="F832" t="n">
-        <v>0.02972826</v>
+        <v>29.72826</v>
       </c>
     </row>
     <row r="833">
@@ -17023,7 +17023,7 @@
         <v>4.755</v>
       </c>
       <c r="F833" t="n">
-        <v>0.02974728</v>
+        <v>29.74728</v>
       </c>
     </row>
     <row r="834">
@@ -17043,7 +17043,7 @@
         <v>4.74</v>
       </c>
       <c r="F834" t="n">
-        <v>0.0296724</v>
+        <v>29.6724</v>
       </c>
     </row>
     <row r="835">
@@ -17063,7 +17063,7 @@
         <v>4.83</v>
       </c>
       <c r="F835" t="n">
-        <v>0.0307188</v>
+        <v>30.7188</v>
       </c>
     </row>
     <row r="836">
@@ -17083,7 +17083,7 @@
         <v>4.725</v>
       </c>
       <c r="F836" t="n">
-        <v>0.0297486</v>
+        <v>29.7486</v>
       </c>
     </row>
     <row r="837">
@@ -17103,7 +17103,7 @@
         <v>4.649999999999999</v>
       </c>
       <c r="F837" t="n">
-        <v>0.0298716</v>
+        <v>29.8716</v>
       </c>
     </row>
     <row r="838">
@@ -17123,7 +17123,7 @@
         <v>4.605</v>
       </c>
       <c r="F838" t="n">
-        <v>0.0297483</v>
+        <v>29.7483</v>
       </c>
     </row>
     <row r="839">
@@ -17143,7 +17143,7 @@
         <v>4.59</v>
       </c>
       <c r="F839" t="n">
-        <v>0.02976156</v>
+        <v>29.76156</v>
       </c>
     </row>
     <row r="840">
@@ -17163,7 +17163,7 @@
         <v>4.38</v>
       </c>
       <c r="F840" t="n">
-        <v>0.02990664</v>
+        <v>29.90664</v>
       </c>
     </row>
     <row r="841">
@@ -17183,7 +17183,7 @@
         <v>4.35</v>
       </c>
       <c r="F841" t="n">
-        <v>0.0300498</v>
+        <v>30.0498</v>
       </c>
     </row>
     <row r="842">
@@ -17203,7 +17203,7 @@
         <v>4.455</v>
       </c>
       <c r="F842" t="n">
-        <v>0.02977722</v>
+        <v>29.77722</v>
       </c>
     </row>
     <row r="843">
@@ -17223,7 +17223,7 @@
         <v>4.47</v>
       </c>
       <c r="F843" t="n">
-        <v>0.02978808</v>
+        <v>29.78808</v>
       </c>
     </row>
     <row r="844">
@@ -17243,7 +17243,7 @@
         <v>4.47</v>
       </c>
       <c r="F844" t="n">
-        <v>0.02975232</v>
+        <v>29.75232</v>
       </c>
     </row>
     <row r="845">
@@ -17263,7 +17263,7 @@
         <v>4.47</v>
       </c>
       <c r="F845" t="n">
-        <v>0.02975232</v>
+        <v>29.75232</v>
       </c>
     </row>
     <row r="846">
@@ -17283,7 +17283,7 @@
         <v>4.41</v>
       </c>
       <c r="F846" t="n">
-        <v>0.02986452</v>
+        <v>29.86452</v>
       </c>
     </row>
     <row r="847">
@@ -17303,7 +17303,7 @@
         <v>4.455</v>
       </c>
       <c r="F847" t="n">
-        <v>0.02988414</v>
+        <v>29.88414</v>
       </c>
     </row>
     <row r="848">
@@ -17323,7 +17323,7 @@
         <v>4.5</v>
       </c>
       <c r="F848" t="n">
-        <v>0.02988</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="849">
@@ -17343,7 +17343,7 @@
         <v>4.47</v>
       </c>
       <c r="F849" t="n">
-        <v>0.02982384</v>
+        <v>29.82384</v>
       </c>
     </row>
     <row r="850">
@@ -17363,7 +17363,7 @@
         <v>4.41</v>
       </c>
       <c r="F850" t="n">
-        <v>0.0298998</v>
+        <v>29.8998</v>
       </c>
     </row>
     <row r="851">
@@ -17383,7 +17383,7 @@
         <v>4.515</v>
       </c>
       <c r="F851" t="n">
-        <v>0.03001572</v>
+        <v>30.01572</v>
       </c>
     </row>
     <row r="852">
@@ -17403,7 +17403,7 @@
         <v>4.44</v>
       </c>
       <c r="F852" t="n">
-        <v>0.02989008</v>
+        <v>29.89008</v>
       </c>
     </row>
     <row r="853">
@@ -17423,7 +17423,7 @@
         <v>4.649999999999999</v>
       </c>
       <c r="F853" t="n">
-        <v>0.0297972</v>
+        <v>29.7972</v>
       </c>
     </row>
     <row r="854">
@@ -17443,7 +17443,7 @@
         <v>4.515</v>
       </c>
       <c r="F854" t="n">
-        <v>0.02992542</v>
+        <v>29.92542</v>
       </c>
     </row>
     <row r="855">
@@ -17463,7 +17463,7 @@
         <v>4.56</v>
       </c>
       <c r="F855" t="n">
-        <v>0.02995008</v>
+        <v>29.95008</v>
       </c>
     </row>
     <row r="856">
@@ -17483,7 +17483,7 @@
         <v>4.77</v>
       </c>
       <c r="F856" t="n">
-        <v>0.02972664</v>
+        <v>29.72664</v>
       </c>
     </row>
     <row r="857">
@@ -17503,7 +17503,7 @@
         <v>4.74</v>
       </c>
       <c r="F857" t="n">
-        <v>0.0296724</v>
+        <v>29.6724</v>
       </c>
     </row>
     <row r="858">
@@ -17523,7 +17523,7 @@
         <v>4.859999999999999</v>
       </c>
       <c r="F858" t="n">
-        <v>0.02972376</v>
+        <v>29.72376</v>
       </c>
     </row>
     <row r="859">
@@ -17543,7 +17543,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F859" t="n">
-        <v>0.03013608</v>
+        <v>30.13608</v>
       </c>
     </row>
     <row r="860">
@@ -17563,7 +17563,7 @@
         <v>5.01</v>
       </c>
       <c r="F860" t="n">
-        <v>0.02947884</v>
+        <v>29.47884</v>
       </c>
     </row>
     <row r="861">
@@ -17583,7 +17583,7 @@
         <v>5.085</v>
       </c>
       <c r="F861" t="n">
-        <v>0.0300015</v>
+        <v>30.0015</v>
       </c>
     </row>
     <row r="862">
@@ -17603,7 +17603,7 @@
         <v>4.905</v>
       </c>
       <c r="F862" t="n">
-        <v>0.02956734</v>
+        <v>29.56734</v>
       </c>
     </row>
     <row r="863">
@@ -17623,7 +17623,7 @@
         <v>6.84</v>
       </c>
       <c r="F863" t="n">
-        <v>0.02027376</v>
+        <v>20.27376</v>
       </c>
     </row>
     <row r="864">
@@ -17643,7 +17643,7 @@
         <v>6.765</v>
       </c>
       <c r="F864" t="n">
-        <v>0.01439592</v>
+        <v>14.39592</v>
       </c>
     </row>
     <row r="865">
@@ -17663,7 +17663,7 @@
         <v>7.109999999999999</v>
       </c>
       <c r="F865" t="n">
-        <v>0.01524384</v>
+        <v>15.24384</v>
       </c>
     </row>
     <row r="866">
@@ -17683,7 +17683,7 @@
         <v>6.84</v>
       </c>
       <c r="F866" t="n">
-        <v>0.0149112</v>
+        <v>14.9112</v>
       </c>
     </row>
     <row r="867">
@@ -17703,7 +17703,7 @@
         <v>7.245</v>
       </c>
       <c r="F867" t="n">
-        <v>0.01582308</v>
+        <v>15.82308</v>
       </c>
     </row>
     <row r="868">
@@ -17723,7 +17723,7 @@
         <v>7.785</v>
       </c>
       <c r="F868" t="n">
-        <v>0.01675332</v>
+        <v>16.75332</v>
       </c>
     </row>
     <row r="869">
@@ -17743,7 +17743,7 @@
         <v>20.82</v>
       </c>
       <c r="F869" t="n">
-        <v>0.04505448000000001</v>
+        <v>45.05448000000001</v>
       </c>
     </row>
     <row r="870">
@@ -17763,7 +17763,7 @@
         <v>26.55</v>
       </c>
       <c r="F870" t="n">
-        <v>0.057348</v>
+        <v>57.34800000000001</v>
       </c>
     </row>
     <row r="871">
@@ -17783,7 +17783,7 @@
         <v>36.165</v>
       </c>
       <c r="F871" t="n">
-        <v>0.07855038</v>
+        <v>78.55038</v>
       </c>
     </row>
     <row r="872">
@@ -17803,7 +17803,7 @@
         <v>25.665</v>
       </c>
       <c r="F872" t="n">
-        <v>0.056463</v>
+        <v>56.463</v>
       </c>
     </row>
     <row r="873">
@@ -17823,7 +17823,7 @@
         <v>20.865</v>
       </c>
       <c r="F873" t="n">
-        <v>0.04581954000000001</v>
+        <v>45.81954000000001</v>
       </c>
     </row>
     <row r="874">
@@ -17843,7 +17843,7 @@
         <v>18.855</v>
       </c>
       <c r="F874" t="n">
-        <v>0.04027428</v>
+        <v>40.27428</v>
       </c>
     </row>
     <row r="875">
@@ -17863,7 +17863,7 @@
         <v>13.2</v>
       </c>
       <c r="F875" t="n">
-        <v>0.0287232</v>
+        <v>28.7232</v>
       </c>
     </row>
     <row r="876">
@@ -17883,7 +17883,7 @@
         <v>11.73</v>
       </c>
       <c r="F876" t="n">
-        <v>0.0253368</v>
+        <v>25.3368</v>
       </c>
     </row>
     <row r="877">
@@ -17903,7 +17903,7 @@
         <v>11.055</v>
       </c>
       <c r="F877" t="n">
-        <v>0.02352504</v>
+        <v>23.52504</v>
       </c>
     </row>
     <row r="878">
@@ -17923,7 +17923,7 @@
         <v>9.959999999999999</v>
       </c>
       <c r="F878" t="n">
-        <v>0.02127456</v>
+        <v>21.27456</v>
       </c>
     </row>
     <row r="879">
@@ -17943,7 +17943,7 @@
         <v>7.574999999999999</v>
       </c>
       <c r="F879" t="n">
-        <v>0.0158166</v>
+        <v>15.8166</v>
       </c>
     </row>
     <row r="880">
@@ -17963,7 +17963,7 @@
         <v>7.815</v>
       </c>
       <c r="F880" t="n">
-        <v>0.01650528</v>
+        <v>16.50528</v>
       </c>
     </row>
     <row r="881">
@@ -17983,7 +17983,7 @@
         <v>7.635</v>
       </c>
       <c r="F881" t="n">
-        <v>0.01627782</v>
+        <v>16.27782</v>
       </c>
     </row>
     <row r="882">
@@ -18003,7 +18003,7 @@
         <v>5.955</v>
       </c>
       <c r="F882" t="n">
-        <v>0.01283898</v>
+        <v>12.83898</v>
       </c>
     </row>
     <row r="883">
@@ -18023,7 +18023,7 @@
         <v>4.635</v>
       </c>
       <c r="F883" t="n">
-        <v>0.01006722</v>
+        <v>10.06722</v>
       </c>
     </row>
     <row r="884">
@@ -18043,7 +18043,7 @@
         <v>4.68</v>
       </c>
       <c r="F884" t="n">
-        <v>0.01005264</v>
+        <v>10.05264</v>
       </c>
     </row>
     <row r="885">
@@ -18063,7 +18063,7 @@
         <v>4.32</v>
       </c>
       <c r="F885" t="n">
-        <v>0.00940032</v>
+        <v>9.400320000000001</v>
       </c>
     </row>
     <row r="886">
@@ -18083,7 +18083,7 @@
         <v>3.495</v>
       </c>
       <c r="F886" t="n">
-        <v>0.0075492</v>
+        <v>7.5492</v>
       </c>
     </row>
     <row r="887">
@@ -18103,7 +18103,7 @@
         <v>1.23</v>
       </c>
       <c r="F887" t="n">
-        <v>0.00274536</v>
+        <v>2.74536</v>
       </c>
     </row>
     <row r="888">
@@ -18123,7 +18123,7 @@
         <v>3.12</v>
       </c>
       <c r="F888" t="n">
-        <v>0.006789120000000001</v>
+        <v>6.78912</v>
       </c>
     </row>
     <row r="889">
@@ -18143,7 +18143,7 @@
         <v>2.685</v>
       </c>
       <c r="F889" t="n">
-        <v>0.005842560000000001</v>
+        <v>5.842560000000001</v>
       </c>
     </row>
     <row r="890">
@@ -18163,7 +18163,7 @@
         <v>1.17</v>
       </c>
       <c r="F890" t="n">
-        <v>0.00262548</v>
+        <v>2.62548</v>
       </c>
     </row>
     <row r="891">
@@ -18183,7 +18183,7 @@
         <v>1.11</v>
       </c>
       <c r="F891" t="n">
-        <v>0.00247308</v>
+        <v>2.47308</v>
       </c>
     </row>
     <row r="892">
@@ -18203,7 +18203,7 @@
         <v>1.08</v>
       </c>
       <c r="F892" t="n">
-        <v>0.00238464</v>
+        <v>2.38464</v>
       </c>
     </row>
     <row r="893">
@@ -18223,7 +18223,7 @@
         <v>1.185</v>
       </c>
       <c r="F893" t="n">
-        <v>0.002692320000000001</v>
+        <v>2.692320000000001</v>
       </c>
     </row>
     <row r="894">
@@ -18243,7 +18243,7 @@
         <v>0.84</v>
       </c>
       <c r="F894" t="n">
-        <v>0.00187152</v>
+        <v>1.87152</v>
       </c>
     </row>
     <row r="895">
@@ -18263,7 +18263,7 @@
         <v>0.825</v>
       </c>
       <c r="F895" t="n">
-        <v>0.0018282</v>
+        <v>1.8282</v>
       </c>
     </row>
     <row r="896">
@@ -18283,7 +18283,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F896" t="n">
-        <v>0.00176808</v>
+        <v>1.76808</v>
       </c>
     </row>
     <row r="897">
@@ -18303,7 +18303,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F897" t="n">
-        <v>0.00148632</v>
+        <v>1.48632</v>
       </c>
     </row>
     <row r="898">
@@ -18323,7 +18323,7 @@
         <v>0.6</v>
       </c>
       <c r="F898" t="n">
-        <v>0.001344</v>
+        <v>1.344</v>
       </c>
     </row>
     <row r="899">
@@ -18343,7 +18343,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F899" t="n">
-        <v>0.00120768</v>
+        <v>1.20768</v>
       </c>
     </row>
     <row r="900">
@@ -18363,7 +18363,7 @@
         <v>0.51</v>
       </c>
       <c r="F900" t="n">
-        <v>0.0011424</v>
+        <v>1.1424</v>
       </c>
     </row>
     <row r="901">
@@ -18383,7 +18383,7 @@
         <v>0.405</v>
       </c>
       <c r="F901" t="n">
-        <v>0.00090396</v>
+        <v>0.90396</v>
       </c>
     </row>
     <row r="902">
@@ -18403,7 +18403,7 @@
         <v>0.33</v>
       </c>
       <c r="F902" t="n">
-        <v>0.00072996</v>
+        <v>0.7299599999999999</v>
       </c>
     </row>
     <row r="903">
@@ -18423,7 +18423,7 @@
         <v>0.3</v>
       </c>
       <c r="F903" t="n">
-        <v>0.0006648</v>
+        <v>0.6648000000000001</v>
       </c>
     </row>
     <row r="904">
@@ -18443,7 +18443,7 @@
         <v>0.285</v>
       </c>
       <c r="F904" t="n">
-        <v>0.00063384</v>
+        <v>0.63384</v>
       </c>
     </row>
     <row r="905">
@@ -18463,7 +18463,7 @@
         <v>0.27</v>
       </c>
       <c r="F905" t="n">
-        <v>0.0006004800000000001</v>
+        <v>0.6004800000000001</v>
       </c>
     </row>
     <row r="906">
@@ -18483,7 +18483,7 @@
         <v>0.27</v>
       </c>
       <c r="F906" t="n">
-        <v>0.0005929200000000001</v>
+        <v>0.5929200000000001</v>
       </c>
     </row>
     <row r="907">
@@ -18503,7 +18503,7 @@
         <v>0.27</v>
       </c>
       <c r="F907" t="n">
-        <v>0.00061452</v>
+        <v>0.6145200000000001</v>
       </c>
     </row>
     <row r="908">
@@ -18523,7 +18523,7 @@
         <v>0.27</v>
       </c>
       <c r="F908" t="n">
-        <v>0.0005918400000000001</v>
+        <v>0.59184</v>
       </c>
     </row>
     <row r="909">
@@ -18543,7 +18543,7 @@
         <v>0.24</v>
       </c>
       <c r="F909" t="n">
-        <v>0.00053856</v>
+        <v>0.53856</v>
       </c>
     </row>
     <row r="910">
@@ -18563,7 +18563,7 @@
         <v>0.285</v>
       </c>
       <c r="F910" t="n">
-        <v>0.0006327</v>
+        <v>0.6327</v>
       </c>
     </row>
     <row r="911">
@@ -18583,7 +18583,7 @@
         <v>0.3</v>
       </c>
       <c r="F911" t="n">
-        <v>0.0006672000000000001</v>
+        <v>0.6672</v>
       </c>
     </row>
     <row r="912">
@@ -18603,7 +18603,7 @@
         <v>0.33</v>
       </c>
       <c r="F912" t="n">
-        <v>0.0007141199999999999</v>
+        <v>0.71412</v>
       </c>
     </row>
     <row r="913">
@@ -18623,7 +18623,7 @@
         <v>0.45</v>
       </c>
       <c r="F913" t="n">
-        <v>0.0009972</v>
+        <v>0.9972</v>
       </c>
     </row>
     <row r="914">
@@ -18643,7 +18643,7 @@
         <v>0.465</v>
       </c>
       <c r="F914" t="n">
-        <v>0.00098952</v>
+        <v>0.9895200000000001</v>
       </c>
     </row>
     <row r="915">
@@ -18663,7 +18663,7 @@
         <v>0.465</v>
       </c>
       <c r="F915" t="n">
-        <v>0.00103416</v>
+        <v>1.03416</v>
       </c>
     </row>
     <row r="916">
@@ -18683,7 +18683,7 @@
         <v>0.495</v>
       </c>
       <c r="F916" t="n">
-        <v>0.00108108</v>
+        <v>1.08108</v>
       </c>
     </row>
     <row r="917">
@@ -18703,7 +18703,7 @@
         <v>0.585</v>
       </c>
       <c r="F917" t="n">
-        <v>0.00128232</v>
+        <v>1.28232</v>
       </c>
     </row>
     <row r="918">
@@ -18723,7 +18723,7 @@
         <v>0.645</v>
       </c>
       <c r="F918" t="n">
-        <v>0.00140094</v>
+        <v>1.40094</v>
       </c>
     </row>
     <row r="919">
@@ -18743,7 +18743,7 @@
         <v>0.615</v>
       </c>
       <c r="F919" t="n">
-        <v>0.00135054</v>
+        <v>1.35054</v>
       </c>
     </row>
     <row r="920">
@@ -18763,7 +18763,7 @@
         <v>0.63</v>
       </c>
       <c r="F920" t="n">
-        <v>0.00135828</v>
+        <v>1.35828</v>
       </c>
     </row>
     <row r="921">
@@ -18783,7 +18783,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F921" t="n">
-        <v>0.00143088</v>
+        <v>1.43088</v>
       </c>
     </row>
     <row r="922">
@@ -18803,7 +18803,7 @@
         <v>0.585</v>
       </c>
       <c r="F922" t="n">
-        <v>0.0012753</v>
+        <v>1.2753</v>
       </c>
     </row>
     <row r="923">
@@ -18823,7 +18823,7 @@
         <v>0.465</v>
       </c>
       <c r="F923" t="n">
-        <v>0.00103974</v>
+        <v>1.03974</v>
       </c>
     </row>
     <row r="924">
@@ -18843,7 +18843,7 @@
         <v>0.45</v>
       </c>
       <c r="F924" t="n">
-        <v>0.0009809999999999999</v>
+        <v>0.9809999999999999</v>
       </c>
     </row>
     <row r="925">
@@ -18863,7 +18863,7 @@
         <v>0.45</v>
       </c>
       <c r="F925" t="n">
-        <v>0.0009738</v>
+        <v>0.9738</v>
       </c>
     </row>
     <row r="926">
@@ -18883,7 +18883,7 @@
         <v>0.465</v>
       </c>
       <c r="F926" t="n">
-        <v>0.00103788</v>
+        <v>1.03788</v>
       </c>
     </row>
     <row r="927">
@@ -18903,7 +18903,7 @@
         <v>0.48</v>
       </c>
       <c r="F927" t="n">
-        <v>0.00108288</v>
+        <v>1.08288</v>
       </c>
     </row>
     <row r="928">
@@ -18923,7 +18923,7 @@
         <v>0.63</v>
       </c>
       <c r="F928" t="n">
-        <v>0.001386</v>
+        <v>1.386</v>
       </c>
     </row>
     <row r="929">
@@ -18943,7 +18943,7 @@
         <v>0.735</v>
       </c>
       <c r="F929" t="n">
-        <v>0.00162288</v>
+        <v>1.62288</v>
       </c>
     </row>
     <row r="930">
@@ -18963,7 +18963,7 @@
         <v>2.085</v>
       </c>
       <c r="F930" t="n">
-        <v>0.00427842</v>
+        <v>4.27842</v>
       </c>
     </row>
     <row r="931">
@@ -18983,7 +18983,7 @@
         <v>2.445</v>
       </c>
       <c r="F931" t="n">
-        <v>0.005173619999999999</v>
+        <v>5.173619999999999</v>
       </c>
     </row>
     <row r="932">
@@ -19003,7 +19003,7 @@
         <v>2.715</v>
       </c>
       <c r="F932" t="n">
-        <v>0.005842679999999999</v>
+        <v>5.84268</v>
       </c>
     </row>
     <row r="933">
@@ -19023,7 +19023,7 @@
         <v>3</v>
       </c>
       <c r="F933" t="n">
-        <v>0.006552000000000001</v>
+        <v>6.552000000000001</v>
       </c>
     </row>
     <row r="934">
@@ -19043,7 +19043,7 @@
         <v>3.105</v>
       </c>
       <c r="F934" t="n">
-        <v>0.006706800000000001</v>
+        <v>6.7068</v>
       </c>
     </row>
     <row r="935">
@@ -19063,7 +19063,7 @@
         <v>2.805</v>
       </c>
       <c r="F935" t="n">
-        <v>0.00604758</v>
+        <v>6.04758</v>
       </c>
     </row>
     <row r="936">
@@ -19083,7 +19083,7 @@
         <v>3.045</v>
       </c>
       <c r="F936" t="n">
-        <v>0.00662592</v>
+        <v>6.625920000000001</v>
       </c>
     </row>
     <row r="937">
@@ -19103,7 +19103,7 @@
         <v>3.495</v>
       </c>
       <c r="F937" t="n">
-        <v>0.007689</v>
+        <v>7.689</v>
       </c>
     </row>
     <row r="938">
@@ -19123,7 +19123,7 @@
         <v>3.015</v>
       </c>
       <c r="F938" t="n">
-        <v>0.00653652</v>
+        <v>6.536519999999999</v>
       </c>
     </row>
     <row r="939">
@@ -19143,7 +19143,7 @@
         <v>2.7</v>
       </c>
       <c r="F939" t="n">
-        <v>0.0057996</v>
+        <v>5.7996</v>
       </c>
     </row>
     <row r="940">
@@ -19163,7 +19163,7 @@
         <v>3.42</v>
       </c>
       <c r="F940" t="n">
-        <v>0.007537680000000001</v>
+        <v>7.537680000000001</v>
       </c>
     </row>
     <row r="941">
@@ -19183,7 +19183,7 @@
         <v>2.34</v>
       </c>
       <c r="F941" t="n">
-        <v>0.00492336</v>
+        <v>4.92336</v>
       </c>
     </row>
     <row r="942">
@@ -19203,7 +19203,7 @@
         <v>2.13</v>
       </c>
       <c r="F942" t="n">
-        <v>0.00443892</v>
+        <v>4.43892</v>
       </c>
     </row>
     <row r="943">
@@ -19223,7 +19223,7 @@
         <v>1.545</v>
       </c>
       <c r="F943" t="n">
-        <v>0.0028737</v>
+        <v>2.8737</v>
       </c>
     </row>
     <row r="944">
@@ -19243,7 +19243,7 @@
         <v>1.635</v>
       </c>
       <c r="F944" t="n">
-        <v>0.0031065</v>
+        <v>3.1065</v>
       </c>
     </row>
     <row r="945">
@@ -19263,7 +19263,7 @@
         <v>1.395</v>
       </c>
       <c r="F945" t="n">
-        <v>0.0026226</v>
+        <v>2.6226</v>
       </c>
     </row>
     <row r="946">
@@ -19283,7 +19283,7 @@
         <v>1.395</v>
       </c>
       <c r="F946" t="n">
-        <v>0.00252774</v>
+        <v>2.52774</v>
       </c>
     </row>
     <row r="947">
@@ -19303,7 +19303,7 @@
         <v>1.335</v>
       </c>
       <c r="F947" t="n">
-        <v>0.00262728</v>
+        <v>2.62728</v>
       </c>
     </row>
     <row r="948">
@@ -19323,7 +19323,7 @@
         <v>0.885</v>
       </c>
       <c r="F948" t="n">
-        <v>0.0019293</v>
+        <v>1.9293</v>
       </c>
     </row>
     <row r="949">
@@ -19343,7 +19343,7 @@
         <v>0.78</v>
       </c>
       <c r="F949" t="n">
-        <v>0.001716</v>
+        <v>1.716</v>
       </c>
     </row>
     <row r="950">
@@ -19363,7 +19363,7 @@
         <v>0.345</v>
       </c>
       <c r="F950" t="n">
-        <v>0.00075762</v>
+        <v>0.75762</v>
       </c>
     </row>
     <row r="951">
@@ -19383,7 +19383,7 @@
         <v>0.15</v>
       </c>
       <c r="F951" t="n">
-        <v>0.0003396</v>
+        <v>0.3396</v>
       </c>
     </row>
     <row r="952">
@@ -19403,7 +19403,7 @@
         <v>0.06</v>
       </c>
       <c r="F952" t="n">
-        <v>0.00014016</v>
+        <v>0.14016</v>
       </c>
     </row>
     <row r="953">
@@ -19423,7 +19423,7 @@
         <v>0.015</v>
       </c>
       <c r="F953" t="n">
-        <v>3.648e-05</v>
+        <v>0.03648000000000001</v>
       </c>
     </row>
     <row r="954">
